--- a/Stocks/NFLX/NFLX_HighLow.xlsx
+++ b/Stocks/NFLX/NFLX_HighLow.xlsx
@@ -417,2562 +417,2562 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>516.989990234375</v>
+        <v>552.6900024414062</v>
       </c>
       <c r="B2">
-        <v>518.530029296875</v>
+        <v>556.9000244140625</v>
       </c>
       <c r="C2">
-        <v>497</v>
+        <v>547.1099853515625</v>
       </c>
       <c r="D2">
-        <v>502.8599853515625</v>
+        <v>555.3099975585938</v>
       </c>
       <c r="E2">
-        <v>502.8599853515625</v>
+        <v>555.3099975585938</v>
       </c>
       <c r="F2">
-        <v>4926800</v>
+        <v>2894000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>502.8200073242188</v>
+        <v>551.0499877929688</v>
       </c>
       <c r="B3">
-        <v>508.7200012207031</v>
+        <v>557.97998046875</v>
       </c>
       <c r="C3">
-        <v>496.6799926757812</v>
+        <v>549.5800170898438</v>
       </c>
       <c r="D3">
-        <v>508.0499877929688</v>
+        <v>552.780029296875</v>
       </c>
       <c r="E3">
-        <v>508.0499877929688</v>
+        <v>552.780029296875</v>
       </c>
       <c r="F3">
-        <v>3467800</v>
+        <v>2944100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>505.6600036621094</v>
+        <v>557</v>
       </c>
       <c r="B4">
-        <v>518</v>
+        <v>559.75</v>
       </c>
       <c r="C4">
-        <v>504.3999938964844</v>
+        <v>550.2999877929688</v>
       </c>
       <c r="D4">
-        <v>513.9500122070312</v>
+        <v>553.72998046875</v>
       </c>
       <c r="E4">
-        <v>513.9500122070312</v>
+        <v>553.72998046875</v>
       </c>
       <c r="F4">
-        <v>3330000</v>
+        <v>2720300</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>510.510009765625</v>
+        <v>554.8699951171875</v>
       </c>
       <c r="B5">
-        <v>514.4099731445312</v>
+        <v>554.8699951171875</v>
       </c>
       <c r="C5">
-        <v>506.9100036621094</v>
+        <v>538.530029296875</v>
       </c>
       <c r="D5">
-        <v>513.3900146484375</v>
+        <v>540.02001953125</v>
       </c>
       <c r="E5">
-        <v>513.3900146484375</v>
+        <v>540.02001953125</v>
       </c>
       <c r="F5">
-        <v>2418100</v>
+        <v>3740300</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>515.6699829101562</v>
+        <v>544.1699829101562</v>
       </c>
       <c r="B6">
-        <v>528.1300048828125</v>
+        <v>553.489990234375</v>
       </c>
       <c r="C6">
-        <v>515.4400024414062</v>
+        <v>542.6599731445312</v>
       </c>
       <c r="D6">
-        <v>521.6599731445312</v>
+        <v>549.219970703125</v>
       </c>
       <c r="E6">
-        <v>521.6599731445312</v>
+        <v>549.219970703125</v>
       </c>
       <c r="F6">
-        <v>3503100</v>
+        <v>3139100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>529.9299926757812</v>
+        <v>550.5399780273438</v>
       </c>
       <c r="B7">
-        <v>540.5</v>
+        <v>551.97998046875</v>
       </c>
       <c r="C7">
-        <v>527.030029296875</v>
+        <v>539.510009765625</v>
       </c>
       <c r="D7">
-        <v>539.4199829101562</v>
+        <v>546.5399780273438</v>
       </c>
       <c r="E7">
-        <v>539.4199829101562</v>
+        <v>546.5399780273438</v>
       </c>
       <c r="F7">
-        <v>3938600</v>
+        <v>3209100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>540.010009765625</v>
+        <v>546.9000244140625</v>
       </c>
       <c r="B8">
-        <v>542.8499755859375</v>
+        <v>556.4400024414062</v>
       </c>
       <c r="C8">
-        <v>529.22998046875</v>
+        <v>545.530029296875</v>
       </c>
       <c r="D8">
-        <v>540.6699829101562</v>
+        <v>554.4400024414062</v>
       </c>
       <c r="E8">
-        <v>540.6699829101562</v>
+        <v>554.4400024414062</v>
       </c>
       <c r="F8">
-        <v>3355900</v>
+        <v>4288700</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>544.8099975585938</v>
+        <v>554.4199829101562</v>
       </c>
       <c r="B9">
-        <v>554.1699829101562</v>
+        <v>563.5599975585938</v>
       </c>
       <c r="C9">
-        <v>543.2999877929688</v>
+        <v>546.2999877929688</v>
       </c>
       <c r="D9">
-        <v>544.530029296875</v>
+        <v>549.5700073242188</v>
       </c>
       <c r="E9">
-        <v>544.530029296875</v>
+        <v>549.5700073242188</v>
       </c>
       <c r="F9">
-        <v>3474200</v>
+        <v>11257600</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>543.5</v>
+        <v>508</v>
       </c>
       <c r="B10">
-        <v>549.6400146484375</v>
+        <v>515.4600219726562</v>
       </c>
       <c r="C10">
-        <v>541.4500122070312</v>
+        <v>503.6000061035156</v>
       </c>
       <c r="D10">
-        <v>546.989990234375</v>
+        <v>508.8999938964844</v>
       </c>
       <c r="E10">
-        <v>546.989990234375</v>
+        <v>508.8999938964844</v>
       </c>
       <c r="F10">
-        <v>2151300</v>
+        <v>22897400</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>551.1300048828125</v>
+        <v>513.8200073242188</v>
       </c>
       <c r="B11">
-        <v>556.9000244140625</v>
+        <v>513.9600219726562</v>
       </c>
       <c r="C11">
-        <v>547.5700073242188</v>
+        <v>500.5499877929688</v>
       </c>
       <c r="D11">
-        <v>554.5800170898438</v>
+        <v>508.7799987792969</v>
       </c>
       <c r="E11">
-        <v>554.5800170898438</v>
+        <v>508.7799987792969</v>
       </c>
       <c r="F11">
-        <v>4309800</v>
+        <v>9061100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>552.6900024414062</v>
+        <v>509.010009765625</v>
       </c>
       <c r="B12">
-        <v>556.9000244140625</v>
+        <v>509.7000122070312</v>
       </c>
       <c r="C12">
-        <v>547.1099853515625</v>
+        <v>500.7000122070312</v>
       </c>
       <c r="D12">
-        <v>555.3099975585938</v>
+        <v>505.5499877929688</v>
       </c>
       <c r="E12">
-        <v>555.3099975585938</v>
+        <v>505.5499877929688</v>
       </c>
       <c r="F12">
-        <v>2894000</v>
+        <v>7307700</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>551.0499877929688</v>
+        <v>506.760009765625</v>
       </c>
       <c r="B13">
-        <v>557.97998046875</v>
+        <v>510.4800109863281</v>
       </c>
       <c r="C13">
-        <v>549.5800170898438</v>
+        <v>503</v>
       </c>
       <c r="D13">
-        <v>552.780029296875</v>
+        <v>510.2999877929688</v>
       </c>
       <c r="E13">
-        <v>552.780029296875</v>
+        <v>510.2999877929688</v>
       </c>
       <c r="F13">
-        <v>2944100</v>
+        <v>4388800</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>557</v>
+        <v>512.6199951171875</v>
       </c>
       <c r="B14">
-        <v>559.75</v>
+        <v>512.989990234375</v>
       </c>
       <c r="C14">
-        <v>550.2999877929688</v>
+        <v>504.5799865722656</v>
       </c>
       <c r="D14">
-        <v>553.72998046875</v>
+        <v>505.5499877929688</v>
       </c>
       <c r="E14">
-        <v>553.72998046875</v>
+        <v>505.5499877929688</v>
       </c>
       <c r="F14">
-        <v>2720300</v>
+        <v>3761300</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>554.8699951171875</v>
+        <v>505.2000122070312</v>
       </c>
       <c r="B15">
-        <v>554.8699951171875</v>
+        <v>508.3999938964844</v>
       </c>
       <c r="C15">
-        <v>538.530029296875</v>
+        <v>503.3399963378906</v>
       </c>
       <c r="D15">
-        <v>540.02001953125</v>
+        <v>506.5199890136719</v>
       </c>
       <c r="E15">
-        <v>540.02001953125</v>
+        <v>506.5199890136719</v>
       </c>
       <c r="F15">
-        <v>3740300</v>
+        <v>3193000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>544.1699829101562</v>
+        <v>507.6000061035156</v>
       </c>
       <c r="B16">
-        <v>553.489990234375</v>
+        <v>509.2900085449219</v>
       </c>
       <c r="C16">
-        <v>542.6599731445312</v>
+        <v>499</v>
       </c>
       <c r="D16">
-        <v>549.219970703125</v>
+        <v>509</v>
       </c>
       <c r="E16">
-        <v>549.219970703125</v>
+        <v>509</v>
       </c>
       <c r="F16">
-        <v>3139100</v>
+        <v>5127800</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>550.5399780273438</v>
+        <v>505</v>
       </c>
       <c r="B17">
-        <v>551.97998046875</v>
+        <v>514.5499877929688</v>
       </c>
       <c r="C17">
-        <v>539.510009765625</v>
+        <v>505</v>
       </c>
       <c r="D17">
-        <v>546.5399780273438</v>
+        <v>513.469970703125</v>
       </c>
       <c r="E17">
-        <v>546.5399780273438</v>
+        <v>513.469970703125</v>
       </c>
       <c r="F17">
-        <v>3209100</v>
+        <v>4413200</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>546.9000244140625</v>
+        <v>512.6500244140625</v>
       </c>
       <c r="B18">
-        <v>556.4400024414062</v>
+        <v>518.9500122070312</v>
       </c>
       <c r="C18">
-        <v>545.530029296875</v>
+        <v>505.2000122070312</v>
       </c>
       <c r="D18">
-        <v>554.4400024414062</v>
+        <v>509.1099853515625</v>
       </c>
       <c r="E18">
-        <v>554.4400024414062</v>
+        <v>509.1099853515625</v>
       </c>
       <c r="F18">
-        <v>4288700</v>
+        <v>4091900</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>554.4199829101562</v>
+        <v>510.7799987792969</v>
       </c>
       <c r="B19">
-        <v>563.5599975585938</v>
+        <v>511.6300048828125</v>
       </c>
       <c r="C19">
-        <v>546.2999877929688</v>
+        <v>496.7900085449219</v>
       </c>
       <c r="D19">
-        <v>549.5700073242188</v>
+        <v>503.1799926757812</v>
       </c>
       <c r="E19">
-        <v>549.5700073242188</v>
+        <v>503.1799926757812</v>
       </c>
       <c r="F19">
-        <v>11257600</v>
+        <v>4349500</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>508</v>
+        <v>504.989990234375</v>
       </c>
       <c r="B20">
-        <v>515.4600219726562</v>
+        <v>507.7799987792969</v>
       </c>
       <c r="C20">
-        <v>503.6000061035156</v>
+        <v>494.6300048828125</v>
       </c>
       <c r="D20">
-        <v>508.8999938964844</v>
+        <v>496.0799865722656</v>
       </c>
       <c r="E20">
-        <v>508.8999938964844</v>
+        <v>496.0799865722656</v>
       </c>
       <c r="F20">
-        <v>22897400</v>
+        <v>3129400</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>513.8200073242188</v>
+        <v>495.989990234375</v>
       </c>
       <c r="B21">
-        <v>513.9600219726562</v>
+        <v>499.5499877929688</v>
       </c>
       <c r="C21">
-        <v>500.5499877929688</v>
+        <v>491.3699951171875</v>
       </c>
       <c r="D21">
-        <v>508.7799987792969</v>
+        <v>499.5499877929688</v>
       </c>
       <c r="E21">
-        <v>508.7799987792969</v>
+        <v>499.5499877929688</v>
       </c>
       <c r="F21">
-        <v>9061100</v>
+        <v>3783700</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>509.010009765625</v>
+        <v>504.6199951171875</v>
       </c>
       <c r="B22">
-        <v>509.7000122070312</v>
+        <v>508.5499877929688</v>
       </c>
       <c r="C22">
-        <v>500.7000122070312</v>
+        <v>501.1199951171875</v>
       </c>
       <c r="D22">
-        <v>505.5499877929688</v>
+        <v>503.8399963378906</v>
       </c>
       <c r="E22">
-        <v>505.5499877929688</v>
+        <v>503.8399963378906</v>
       </c>
       <c r="F22">
-        <v>7307700</v>
+        <v>3132800</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>506.760009765625</v>
+        <v>502</v>
       </c>
       <c r="B23">
-        <v>510.4800109863281</v>
+        <v>503.1499938964844</v>
       </c>
       <c r="C23">
-        <v>503</v>
+        <v>486.1099853515625</v>
       </c>
       <c r="D23">
-        <v>510.2999877929688</v>
+        <v>486.6900024414062</v>
       </c>
       <c r="E23">
-        <v>510.2999877929688</v>
+        <v>486.6900024414062</v>
       </c>
       <c r="F23">
-        <v>4388800</v>
+        <v>5131600</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>512.6199951171875</v>
+        <v>479.75</v>
       </c>
       <c r="B24">
-        <v>512.989990234375</v>
+        <v>497.989990234375</v>
       </c>
       <c r="C24">
-        <v>504.5799865722656</v>
+        <v>478.6300048828125</v>
       </c>
       <c r="D24">
-        <v>505.5499877929688</v>
+        <v>495.0799865722656</v>
       </c>
       <c r="E24">
-        <v>505.5499877929688</v>
+        <v>495.0799865722656</v>
       </c>
       <c r="F24">
-        <v>3761300</v>
+        <v>4401000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>505.2000122070312</v>
+        <v>486.8299865722656</v>
       </c>
       <c r="B25">
-        <v>508.3999938964844</v>
+        <v>493.5400085449219</v>
       </c>
       <c r="C25">
-        <v>503.3399963378906</v>
+        <v>482.7000122070312</v>
       </c>
       <c r="D25">
-        <v>506.5199890136719</v>
+        <v>484.9800109863281</v>
       </c>
       <c r="E25">
-        <v>506.5199890136719</v>
+        <v>484.9800109863281</v>
       </c>
       <c r="F25">
-        <v>3193000</v>
+        <v>4121500</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>507.6000061035156</v>
+        <v>489.1300048828125</v>
       </c>
       <c r="B26">
-        <v>509.2900085449219</v>
+        <v>490.7799987792969</v>
       </c>
       <c r="C26">
-        <v>499</v>
+        <v>482.7099914550781</v>
       </c>
       <c r="D26">
-        <v>509</v>
+        <v>486.6600036621094</v>
       </c>
       <c r="E26">
-        <v>509</v>
+        <v>486.6600036621094</v>
       </c>
       <c r="F26">
-        <v>5127800</v>
+        <v>2712500</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>505</v>
+        <v>487.8599853515625</v>
       </c>
       <c r="B27">
-        <v>514.5499877929688</v>
+        <v>494.8500061035156</v>
       </c>
       <c r="C27">
-        <v>505</v>
+        <v>486.5899963378906</v>
       </c>
       <c r="D27">
-        <v>513.469970703125</v>
+        <v>493.3699951171875</v>
       </c>
       <c r="E27">
-        <v>513.469970703125</v>
+        <v>493.3699951171875</v>
       </c>
       <c r="F27">
-        <v>4413200</v>
+        <v>2882500</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>512.6500244140625</v>
+        <v>485.5899963378906</v>
       </c>
       <c r="B28">
-        <v>518.9500122070312</v>
+        <v>492.7099914550781</v>
       </c>
       <c r="C28">
-        <v>505.2000122070312</v>
+        <v>482.8099975585938</v>
       </c>
       <c r="D28">
-        <v>509.1099853515625</v>
+        <v>488.9400024414062</v>
       </c>
       <c r="E28">
-        <v>509.1099853515625</v>
+        <v>488.9400024414062</v>
       </c>
       <c r="F28">
-        <v>4091900</v>
+        <v>2705200</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>510.7799987792969</v>
+        <v>488.3999938964844</v>
       </c>
       <c r="B29">
-        <v>511.6300048828125</v>
+        <v>493.4800109863281</v>
       </c>
       <c r="C29">
-        <v>496.7900085449219</v>
+        <v>486.1900024414062</v>
       </c>
       <c r="D29">
-        <v>503.1799926757812</v>
+        <v>486.2799987792969</v>
       </c>
       <c r="E29">
-        <v>503.1799926757812</v>
+        <v>486.2799987792969</v>
       </c>
       <c r="F29">
-        <v>4349500</v>
+        <v>2350500</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>504.989990234375</v>
+        <v>481.6300048828125</v>
       </c>
       <c r="B30">
-        <v>507.7799987792969</v>
+        <v>488.5700073242188</v>
       </c>
       <c r="C30">
-        <v>494.6300048828125</v>
+        <v>478.5400085449219</v>
       </c>
       <c r="D30">
-        <v>496.0799865722656</v>
+        <v>487.7000122070312</v>
       </c>
       <c r="E30">
-        <v>496.0799865722656</v>
+        <v>487.7000122070312</v>
       </c>
       <c r="F30">
-        <v>3129400</v>
+        <v>3349900</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>495.989990234375</v>
+        <v>489.5499877929688</v>
       </c>
       <c r="B31">
-        <v>499.5499877929688</v>
+        <v>502.7000122070312</v>
       </c>
       <c r="C31">
-        <v>491.3699951171875</v>
+        <v>488.9800109863281</v>
       </c>
       <c r="D31">
-        <v>499.5499877929688</v>
+        <v>501.6700134277344</v>
       </c>
       <c r="E31">
-        <v>499.5499877929688</v>
+        <v>501.6700134277344</v>
       </c>
       <c r="F31">
-        <v>3783700</v>
+        <v>3721200</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>504.6199951171875</v>
+        <v>503.1199951171875</v>
       </c>
       <c r="B32">
-        <v>508.5499877929688</v>
+        <v>505.3999938964844</v>
       </c>
       <c r="C32">
-        <v>501.1199951171875</v>
+        <v>497.260009765625</v>
       </c>
       <c r="D32">
-        <v>503.8399963378906</v>
+        <v>497.8900146484375</v>
       </c>
       <c r="E32">
-        <v>503.8399963378906</v>
+        <v>497.8900146484375</v>
       </c>
       <c r="F32">
-        <v>3132800</v>
+        <v>3322900</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>502</v>
+        <v>501.0499877929688</v>
       </c>
       <c r="B33">
-        <v>503.1499938964844</v>
+        <v>504.25</v>
       </c>
       <c r="C33">
-        <v>486.1099853515625</v>
+        <v>499.510009765625</v>
       </c>
       <c r="D33">
-        <v>486.6900024414062</v>
+        <v>502.8999938964844</v>
       </c>
       <c r="E33">
-        <v>486.6900024414062</v>
+        <v>502.8999938964844</v>
       </c>
       <c r="F33">
-        <v>5131600</v>
+        <v>2412600</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>479.75</v>
+        <v>506</v>
       </c>
       <c r="B34">
-        <v>497.989990234375</v>
+        <v>506.3699951171875</v>
       </c>
       <c r="C34">
-        <v>478.6300048828125</v>
+        <v>499.2200012207031</v>
       </c>
       <c r="D34">
-        <v>495.0799865722656</v>
+        <v>501.3399963378906</v>
       </c>
       <c r="E34">
-        <v>495.0799865722656</v>
+        <v>501.3399963378906</v>
       </c>
       <c r="F34">
-        <v>4401000</v>
+        <v>2699500</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>486.8299865722656</v>
+        <v>502.3399963378906</v>
       </c>
       <c r="B35">
-        <v>493.5400085449219</v>
+        <v>504.1400146484375</v>
       </c>
       <c r="C35">
-        <v>482.7000122070312</v>
+        <v>500.5</v>
       </c>
       <c r="D35">
-        <v>484.9800109863281</v>
+        <v>502.3599853515625</v>
       </c>
       <c r="E35">
-        <v>484.9800109863281</v>
+        <v>502.3599853515625</v>
       </c>
       <c r="F35">
-        <v>4121500</v>
+        <v>2465300</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>489.1300048828125</v>
+        <v>501.7999877929688</v>
       </c>
       <c r="B36">
-        <v>490.7799987792969</v>
+        <v>505.1000061035156</v>
       </c>
       <c r="C36">
-        <v>482.7099914550781</v>
+        <v>498.5400085449219</v>
       </c>
       <c r="D36">
-        <v>486.6600036621094</v>
+        <v>503.8599853515625</v>
       </c>
       <c r="E36">
-        <v>486.6600036621094</v>
+        <v>503.8599853515625</v>
       </c>
       <c r="F36">
-        <v>2712500</v>
+        <v>3253800</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>487.8599853515625</v>
+        <v>504.3999938964844</v>
       </c>
       <c r="B37">
-        <v>494.8500061035156</v>
+        <v>511.760009765625</v>
       </c>
       <c r="C37">
-        <v>486.5899963378906</v>
+        <v>502.5299987792969</v>
       </c>
       <c r="D37">
-        <v>493.3699951171875</v>
+        <v>502.8099975585938</v>
       </c>
       <c r="E37">
-        <v>493.3699951171875</v>
+        <v>502.8099975585938</v>
       </c>
       <c r="F37">
-        <v>2882500</v>
+        <v>2910300</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>485.5899963378906</v>
+        <v>504.010009765625</v>
       </c>
       <c r="B38">
-        <v>492.7099914550781</v>
+        <v>505.4100036621094</v>
       </c>
       <c r="C38">
-        <v>482.8099975585938</v>
+        <v>497.739990234375</v>
       </c>
       <c r="D38">
-        <v>488.9400024414062</v>
+        <v>499.0799865722656</v>
       </c>
       <c r="E38">
-        <v>488.9400024414062</v>
+        <v>499.0799865722656</v>
       </c>
       <c r="F38">
-        <v>2705200</v>
+        <v>2482600</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>488.3999938964844</v>
+        <v>499.8200073242188</v>
       </c>
       <c r="B39">
-        <v>493.4800109863281</v>
+        <v>503.2200012207031</v>
       </c>
       <c r="C39">
-        <v>486.1900024414062</v>
+        <v>495.8200073242188</v>
       </c>
       <c r="D39">
-        <v>486.2799987792969</v>
+        <v>499.239990234375</v>
       </c>
       <c r="E39">
-        <v>486.2799987792969</v>
+        <v>499.239990234375</v>
       </c>
       <c r="F39">
-        <v>2350500</v>
+        <v>2269000</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>481.6300048828125</v>
+        <v>495.1900024414062</v>
       </c>
       <c r="B40">
-        <v>488.5700073242188</v>
+        <v>496.6600036621094</v>
       </c>
       <c r="C40">
-        <v>478.5400085449219</v>
+        <v>487.25</v>
       </c>
       <c r="D40">
-        <v>487.7000122070312</v>
+        <v>489.4299926757812</v>
       </c>
       <c r="E40">
-        <v>487.7000122070312</v>
+        <v>489.4299926757812</v>
       </c>
       <c r="F40">
-        <v>3349900</v>
+        <v>3887400</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>489.5499877929688</v>
+        <v>492</v>
       </c>
       <c r="B41">
-        <v>502.7000122070312</v>
+        <v>501.8599853515625</v>
       </c>
       <c r="C41">
-        <v>488.9800109863281</v>
+        <v>490.9500122070312</v>
       </c>
       <c r="D41">
-        <v>501.6700134277344</v>
+        <v>494.739990234375</v>
       </c>
       <c r="E41">
-        <v>501.6700134277344</v>
+        <v>494.739990234375</v>
       </c>
       <c r="F41">
-        <v>3721200</v>
+        <v>3160500</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>503.1199951171875</v>
+        <v>492.9200134277344</v>
       </c>
       <c r="B42">
-        <v>505.3999938964844</v>
+        <v>496.7000122070312</v>
       </c>
       <c r="C42">
-        <v>497.260009765625</v>
+        <v>490.5499877929688</v>
       </c>
       <c r="D42">
-        <v>497.8900146484375</v>
+        <v>494.6600036621094</v>
       </c>
       <c r="E42">
-        <v>497.8900146484375</v>
+        <v>494.6600036621094</v>
       </c>
       <c r="F42">
-        <v>3322900</v>
+        <v>2791900</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>501.0499877929688</v>
+        <v>497</v>
       </c>
       <c r="B43">
-        <v>504.25</v>
+        <v>498.8200073242188</v>
       </c>
       <c r="C43">
-        <v>499.510009765625</v>
+        <v>489.3699951171875</v>
       </c>
       <c r="D43">
-        <v>502.8999938964844</v>
+        <v>492.3900146484375</v>
       </c>
       <c r="E43">
-        <v>502.8999938964844</v>
+        <v>492.3900146484375</v>
       </c>
       <c r="F43">
-        <v>2412600</v>
+        <v>2374000</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>506</v>
+        <v>494.5</v>
       </c>
       <c r="B44">
-        <v>506.3699951171875</v>
+        <v>496.0899963378906</v>
       </c>
       <c r="C44">
-        <v>499.2200012207031</v>
+        <v>484.6499938964844</v>
       </c>
       <c r="D44">
-        <v>501.3399963378906</v>
+        <v>485.8099975585938</v>
       </c>
       <c r="E44">
-        <v>501.3399963378906</v>
+        <v>485.8099975585938</v>
       </c>
       <c r="F44">
-        <v>2699500</v>
+        <v>3055000</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>502.3399963378906</v>
+        <v>487.1700134277344</v>
       </c>
       <c r="B45">
-        <v>504.1400146484375</v>
+        <v>490.2099914550781</v>
       </c>
       <c r="C45">
-        <v>500.5</v>
+        <v>482.1400146484375</v>
       </c>
       <c r="D45">
-        <v>502.3599853515625</v>
+        <v>487.2699890136719</v>
       </c>
       <c r="E45">
-        <v>502.3599853515625</v>
+        <v>487.2699890136719</v>
       </c>
       <c r="F45">
-        <v>2465300</v>
+        <v>4382900</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>501.7999877929688</v>
+        <v>490</v>
       </c>
       <c r="B46">
-        <v>505.1000061035156</v>
+        <v>491.4100036621094</v>
       </c>
       <c r="C46">
-        <v>498.5400085449219</v>
+        <v>487.7799987792969</v>
       </c>
       <c r="D46">
-        <v>503.8599853515625</v>
+        <v>488.7699890136719</v>
       </c>
       <c r="E46">
-        <v>503.8599853515625</v>
+        <v>488.7699890136719</v>
       </c>
       <c r="F46">
-        <v>3253800</v>
+        <v>3124000</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>504.3999938964844</v>
+        <v>489.6799926757812</v>
       </c>
       <c r="B47">
-        <v>511.760009765625</v>
+        <v>503.5</v>
       </c>
       <c r="C47">
-        <v>502.5299987792969</v>
+        <v>486.9100036621094</v>
       </c>
       <c r="D47">
-        <v>502.8099975585938</v>
+        <v>499.8900146484375</v>
       </c>
       <c r="E47">
-        <v>502.8099975585938</v>
+        <v>499.8900146484375</v>
       </c>
       <c r="F47">
-        <v>2910300</v>
+        <v>4400200</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>504.010009765625</v>
+        <v>501.2300109863281</v>
       </c>
       <c r="B48">
-        <v>505.4100036621094</v>
+        <v>501.2300109863281</v>
       </c>
       <c r="C48">
-        <v>497.739990234375</v>
+        <v>490.3999938964844</v>
       </c>
       <c r="D48">
-        <v>499.0799865722656</v>
+        <v>491.8999938964844</v>
       </c>
       <c r="E48">
-        <v>499.0799865722656</v>
+        <v>491.8999938964844</v>
       </c>
       <c r="F48">
-        <v>2482600</v>
+        <v>3104100</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>499.8200073242188</v>
+        <v>495</v>
       </c>
       <c r="B49">
-        <v>503.2200012207031</v>
+        <v>496.4599914550781</v>
       </c>
       <c r="C49">
-        <v>495.8200073242188</v>
+        <v>486.2799987792969</v>
       </c>
       <c r="D49">
-        <v>499.239990234375</v>
+        <v>492.4100036621094</v>
       </c>
       <c r="E49">
-        <v>499.239990234375</v>
+        <v>492.4100036621094</v>
       </c>
       <c r="F49">
-        <v>2269000</v>
+        <v>3533200</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>495.1900024414062</v>
+        <v>490.25</v>
       </c>
       <c r="B50">
-        <v>496.6600036621094</v>
+        <v>501.7999877929688</v>
       </c>
       <c r="C50">
-        <v>487.25</v>
+        <v>490.1499938964844</v>
       </c>
       <c r="D50">
-        <v>489.4299926757812</v>
+        <v>498.3399963378906</v>
       </c>
       <c r="E50">
-        <v>489.4299926757812</v>
+        <v>498.3399963378906</v>
       </c>
       <c r="F50">
-        <v>3887400</v>
+        <v>3198300</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>492</v>
+        <v>496.3999938964844</v>
       </c>
       <c r="B51">
-        <v>501.8599853515625</v>
+        <v>504.489990234375</v>
       </c>
       <c r="C51">
-        <v>490.9500122070312</v>
+        <v>495.239990234375</v>
       </c>
       <c r="D51">
-        <v>494.739990234375</v>
+        <v>500.7699890136719</v>
       </c>
       <c r="E51">
-        <v>494.739990234375</v>
+        <v>500.7699890136719</v>
       </c>
       <c r="F51">
-        <v>3160500</v>
+        <v>5197600</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>492.9200134277344</v>
+        <v>501.6400146484375</v>
       </c>
       <c r="B52">
-        <v>496.7000122070312</v>
+        <v>502.0499877929688</v>
       </c>
       <c r="C52">
-        <v>490.5499877929688</v>
+        <v>492.2799987792969</v>
       </c>
       <c r="D52">
-        <v>494.6600036621094</v>
+        <v>497</v>
       </c>
       <c r="E52">
-        <v>494.6600036621094</v>
+        <v>497</v>
       </c>
       <c r="F52">
-        <v>2791900</v>
+        <v>5277300</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>497</v>
+        <v>498.5400085449219</v>
       </c>
       <c r="B53">
-        <v>498.8200073242188</v>
+        <v>513.5499877929688</v>
       </c>
       <c r="C53">
-        <v>489.3699951171875</v>
+        <v>495.7999877929688</v>
       </c>
       <c r="D53">
-        <v>492.3900146484375</v>
+        <v>508.8200073242188</v>
       </c>
       <c r="E53">
-        <v>492.3900146484375</v>
+        <v>508.8200073242188</v>
       </c>
       <c r="F53">
-        <v>2374000</v>
+        <v>5809300</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>494.5</v>
+        <v>508.4800109863281</v>
       </c>
       <c r="B54">
-        <v>496.0899963378906</v>
+        <v>516.6300048828125</v>
       </c>
       <c r="C54">
-        <v>484.6499938964844</v>
+        <v>508.2000122070312</v>
       </c>
       <c r="D54">
-        <v>485.8099975585938</v>
+        <v>512.739990234375</v>
       </c>
       <c r="E54">
-        <v>485.8099975585938</v>
+        <v>512.739990234375</v>
       </c>
       <c r="F54">
-        <v>3055000</v>
+        <v>3944800</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>487.1700134277344</v>
+        <v>517.9600219726562</v>
       </c>
       <c r="B55">
-        <v>490.2099914550781</v>
+        <v>520.9600219726562</v>
       </c>
       <c r="C55">
-        <v>482.1400146484375</v>
+        <v>514.4000244140625</v>
       </c>
       <c r="D55">
-        <v>487.2699890136719</v>
+        <v>518.0599975585938</v>
       </c>
       <c r="E55">
-        <v>487.2699890136719</v>
+        <v>518.0599975585938</v>
       </c>
       <c r="F55">
-        <v>4382900</v>
+        <v>3361200</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>490</v>
+        <v>528.8400268554688</v>
       </c>
       <c r="B56">
-        <v>491.4100036621094</v>
+        <v>533.0599975585938</v>
       </c>
       <c r="C56">
-        <v>487.7799987792969</v>
+        <v>525</v>
       </c>
       <c r="D56">
-        <v>488.7699890136719</v>
+        <v>527.0700073242188</v>
       </c>
       <c r="E56">
-        <v>488.7699890136719</v>
+        <v>527.0700073242188</v>
       </c>
       <c r="F56">
-        <v>3124000</v>
+        <v>5299100</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>489.6799926757812</v>
+        <v>528.1199951171875</v>
       </c>
       <c r="B57">
-        <v>503.5</v>
+        <v>533.9400024414062</v>
       </c>
       <c r="C57">
-        <v>486.9100036621094</v>
+        <v>524.5599975585938</v>
       </c>
       <c r="D57">
-        <v>499.8900146484375</v>
+        <v>533.030029296875</v>
       </c>
       <c r="E57">
-        <v>499.8900146484375</v>
+        <v>533.030029296875</v>
       </c>
       <c r="F57">
-        <v>4400200</v>
+        <v>2820200</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>501.2300109863281</v>
+        <v>533.5499877929688</v>
       </c>
       <c r="B58">
-        <v>501.2300109863281</v>
+        <v>536.1300048828125</v>
       </c>
       <c r="C58">
-        <v>490.3999938964844</v>
+        <v>528.5700073242188</v>
       </c>
       <c r="D58">
-        <v>491.8999938964844</v>
+        <v>533.5</v>
       </c>
       <c r="E58">
-        <v>491.8999938964844</v>
+        <v>533.5</v>
       </c>
       <c r="F58">
-        <v>3104100</v>
+        <v>2314600</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>495</v>
+        <v>534.0599975585938</v>
       </c>
       <c r="B59">
-        <v>496.4599914550781</v>
+        <v>534.3800048828125</v>
       </c>
       <c r="C59">
-        <v>486.2799987792969</v>
+        <v>526.8200073242188</v>
       </c>
       <c r="D59">
-        <v>492.4100036621094</v>
+        <v>528.2100219726562</v>
       </c>
       <c r="E59">
-        <v>492.4100036621094</v>
+        <v>528.2100219726562</v>
       </c>
       <c r="F59">
-        <v>3533200</v>
+        <v>2773400</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>490.25</v>
+        <v>525.719970703125</v>
       </c>
       <c r="B60">
-        <v>501.7999877929688</v>
+        <v>537.0399780273438</v>
       </c>
       <c r="C60">
-        <v>490.1499938964844</v>
+        <v>525.719970703125</v>
       </c>
       <c r="D60">
-        <v>498.3399963378906</v>
+        <v>533.5399780273438</v>
       </c>
       <c r="E60">
-        <v>498.3399963378906</v>
+        <v>533.5399780273438</v>
       </c>
       <c r="F60">
-        <v>3198300</v>
+        <v>2805400</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>496.3999938964844</v>
+        <v>535.5</v>
       </c>
       <c r="B61">
-        <v>504.489990234375</v>
+        <v>538.5399780273438</v>
       </c>
       <c r="C61">
-        <v>495.239990234375</v>
+        <v>529.3900146484375</v>
       </c>
       <c r="D61">
-        <v>500.7699890136719</v>
+        <v>533.97998046875</v>
       </c>
       <c r="E61">
-        <v>500.7699890136719</v>
+        <v>533.97998046875</v>
       </c>
       <c r="F61">
-        <v>5197600</v>
+        <v>1975500</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>501.6400146484375</v>
+        <v>533</v>
       </c>
       <c r="B62">
-        <v>502.0499877929688</v>
+        <v>542.8599853515625</v>
       </c>
       <c r="C62">
-        <v>492.2799987792969</v>
+        <v>533</v>
       </c>
       <c r="D62">
-        <v>497</v>
+        <v>541.6400146484375</v>
       </c>
       <c r="E62">
-        <v>497</v>
+        <v>541.6400146484375</v>
       </c>
       <c r="F62">
-        <v>5277300</v>
+        <v>2775100</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>498.5400085449219</v>
+        <v>544.239990234375</v>
       </c>
       <c r="B63">
-        <v>513.5499877929688</v>
+        <v>544.6400146484375</v>
       </c>
       <c r="C63">
-        <v>495.7999877929688</v>
+        <v>531.6599731445312</v>
       </c>
       <c r="D63">
-        <v>508.8200073242188</v>
+        <v>535.9600219726562</v>
       </c>
       <c r="E63">
-        <v>508.8200073242188</v>
+        <v>535.9600219726562</v>
       </c>
       <c r="F63">
-        <v>5809300</v>
+        <v>2722500</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>508.4800109863281</v>
+        <v>530.9299926757812</v>
       </c>
       <c r="B64">
-        <v>516.6300048828125</v>
+        <v>535.5</v>
       </c>
       <c r="C64">
-        <v>508.2000122070312</v>
+        <v>529.0900268554688</v>
       </c>
       <c r="D64">
-        <v>512.739990234375</v>
+        <v>530.760009765625</v>
       </c>
       <c r="E64">
-        <v>512.739990234375</v>
+        <v>530.760009765625</v>
       </c>
       <c r="F64">
-        <v>3944800</v>
+        <v>3269000</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>517.9600219726562</v>
+        <v>531</v>
       </c>
       <c r="B65">
-        <v>520.9600219726562</v>
+        <v>538.260009765625</v>
       </c>
       <c r="C65">
-        <v>514.4000244140625</v>
+        <v>528.5800170898438</v>
       </c>
       <c r="D65">
-        <v>518.0599975585938</v>
+        <v>535.97998046875</v>
       </c>
       <c r="E65">
-        <v>518.0599975585938</v>
+        <v>535.97998046875</v>
       </c>
       <c r="F65">
-        <v>3361200</v>
+        <v>2777200</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>528.8400268554688</v>
+        <v>540.2999877929688</v>
       </c>
       <c r="B66">
-        <v>533.0599975585938</v>
+        <v>540.6500244140625</v>
       </c>
       <c r="C66">
-        <v>525</v>
+        <v>532.9199829101562</v>
       </c>
       <c r="D66">
-        <v>527.0700073242188</v>
+        <v>537.3099975585938</v>
       </c>
       <c r="E66">
-        <v>527.0700073242188</v>
+        <v>537.3099975585938</v>
       </c>
       <c r="F66">
-        <v>5299100</v>
+        <v>1780700</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>528.1199951171875</v>
+        <v>535.760009765625</v>
       </c>
       <c r="B67">
-        <v>533.9400024414062</v>
+        <v>545.3300170898438</v>
       </c>
       <c r="C67">
-        <v>524.5599975585938</v>
+        <v>535.760009765625</v>
       </c>
       <c r="D67">
-        <v>533.030029296875</v>
+        <v>540.6799926757812</v>
       </c>
       <c r="E67">
-        <v>533.030029296875</v>
+        <v>540.6799926757812</v>
       </c>
       <c r="F67">
-        <v>2820200</v>
+        <v>2751600</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>533.5499877929688</v>
+        <v>541.010009765625</v>
       </c>
       <c r="B68">
-        <v>536.1300048828125</v>
+        <v>554.0999755859375</v>
       </c>
       <c r="C68">
-        <v>528.5700073242188</v>
+        <v>541.010009765625</v>
       </c>
       <c r="D68">
-        <v>533.5</v>
+        <v>547.9500122070312</v>
       </c>
       <c r="E68">
-        <v>533.5</v>
+        <v>547.9500122070312</v>
       </c>
       <c r="F68">
-        <v>2314600</v>
+        <v>4659500</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>534.0599975585938</v>
+        <v>553.969970703125</v>
       </c>
       <c r="B69">
-        <v>534.3800048828125</v>
+        <v>557.5399780273438</v>
       </c>
       <c r="C69">
-        <v>526.8200073242188</v>
+        <v>538.2000122070312</v>
       </c>
       <c r="D69">
-        <v>528.2100219726562</v>
+        <v>542.9500122070312</v>
       </c>
       <c r="E69">
-        <v>528.2100219726562</v>
+        <v>542.9500122070312</v>
       </c>
       <c r="F69">
-        <v>2773400</v>
+        <v>5713900</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>525.719970703125</v>
+        <v>541.8099975585938</v>
       </c>
       <c r="B70">
-        <v>537.0399780273438</v>
+        <v>544.0599975585938</v>
       </c>
       <c r="C70">
-        <v>525.719970703125</v>
+        <v>527.0499877929688</v>
       </c>
       <c r="D70">
-        <v>533.5399780273438</v>
+        <v>530.3099975585938</v>
       </c>
       <c r="E70">
-        <v>533.5399780273438</v>
+        <v>530.3099975585938</v>
       </c>
       <c r="F70">
-        <v>2805400</v>
+        <v>3442100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>535.5</v>
+        <v>526.0499877929688</v>
       </c>
       <c r="B71">
-        <v>538.5399780273438</v>
+        <v>534.9099731445312</v>
       </c>
       <c r="C71">
-        <v>529.3900146484375</v>
+        <v>522.239990234375</v>
       </c>
       <c r="D71">
-        <v>533.97998046875</v>
+        <v>532.280029296875</v>
       </c>
       <c r="E71">
-        <v>533.97998046875</v>
+        <v>532.280029296875</v>
       </c>
       <c r="F71">
-        <v>1975500</v>
+        <v>3885800</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>533</v>
+        <v>526.0700073242188</v>
       </c>
       <c r="B72">
-        <v>542.8599853515625</v>
+        <v>536.6400146484375</v>
       </c>
       <c r="C72">
-        <v>533</v>
+        <v>520.2999877929688</v>
       </c>
       <c r="D72">
-        <v>541.6400146484375</v>
+        <v>531.0499877929688</v>
       </c>
       <c r="E72">
-        <v>541.6400146484375</v>
+        <v>531.0499877929688</v>
       </c>
       <c r="F72">
-        <v>2775100</v>
+        <v>6930400</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>544.239990234375</v>
+        <v>526.1300048828125</v>
       </c>
       <c r="B73">
-        <v>544.6400146484375</v>
+        <v>530.989990234375</v>
       </c>
       <c r="C73">
-        <v>531.6599731445312</v>
+        <v>505.6099853515625</v>
       </c>
       <c r="D73">
-        <v>535.9600219726562</v>
+        <v>513.6300048828125</v>
       </c>
       <c r="E73">
-        <v>535.9600219726562</v>
+        <v>513.6300048828125</v>
       </c>
       <c r="F73">
-        <v>2722500</v>
+        <v>11906800</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>530.9299926757812</v>
+        <v>510.2099914550781</v>
       </c>
       <c r="B74">
-        <v>535.5</v>
+        <v>513.6799926757812</v>
       </c>
       <c r="C74">
-        <v>529.0900268554688</v>
+        <v>507</v>
       </c>
       <c r="D74">
-        <v>530.760009765625</v>
+        <v>511.7699890136719</v>
       </c>
       <c r="E74">
-        <v>530.760009765625</v>
+        <v>511.7699890136719</v>
       </c>
       <c r="F74">
-        <v>3269000</v>
+        <v>4328100</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>531</v>
+        <v>512.1599731445312</v>
       </c>
       <c r="B75">
-        <v>538.260009765625</v>
+        <v>517.4099731445312</v>
       </c>
       <c r="C75">
-        <v>528.5800170898438</v>
+        <v>504.6600036621094</v>
       </c>
       <c r="D75">
-        <v>535.97998046875</v>
+        <v>515.4099731445312</v>
       </c>
       <c r="E75">
-        <v>535.97998046875</v>
+        <v>515.4099731445312</v>
       </c>
       <c r="F75">
-        <v>2777200</v>
+        <v>3820500</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>540.2999877929688</v>
+        <v>514.3800048828125</v>
       </c>
       <c r="B76">
-        <v>540.6500244140625</v>
+        <v>521.1300048828125</v>
       </c>
       <c r="C76">
-        <v>532.9199829101562</v>
+        <v>509.010009765625</v>
       </c>
       <c r="D76">
-        <v>537.3099975585938</v>
+        <v>516.489990234375</v>
       </c>
       <c r="E76">
-        <v>537.3099975585938</v>
+        <v>516.489990234375</v>
       </c>
       <c r="F76">
-        <v>1780700</v>
+        <v>2254500</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>535.760009765625</v>
+        <v>518.0800170898438</v>
       </c>
       <c r="B77">
-        <v>545.3300170898438</v>
+        <v>521.9500122070312</v>
       </c>
       <c r="C77">
-        <v>535.760009765625</v>
+        <v>512.0499877929688</v>
       </c>
       <c r="D77">
-        <v>540.6799926757812</v>
+        <v>518.9099731445312</v>
       </c>
       <c r="E77">
-        <v>540.6799926757812</v>
+        <v>518.9099731445312</v>
       </c>
       <c r="F77">
-        <v>2751600</v>
+        <v>2759000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>541.010009765625</v>
+        <v>521.8200073242188</v>
       </c>
       <c r="B78">
-        <v>554.0999755859375</v>
+        <v>524.469970703125</v>
       </c>
       <c r="C78">
-        <v>541.010009765625</v>
+        <v>516.97998046875</v>
       </c>
       <c r="D78">
-        <v>547.9500122070312</v>
+        <v>519.2999877929688</v>
       </c>
       <c r="E78">
-        <v>547.9500122070312</v>
+        <v>519.2999877929688</v>
       </c>
       <c r="F78">
-        <v>4659500</v>
+        <v>2390500</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>553.969970703125</v>
+        <v>519.9600219726562</v>
       </c>
       <c r="B79">
-        <v>557.5399780273438</v>
+        <v>520.780029296875</v>
       </c>
       <c r="C79">
-        <v>538.2000122070312</v>
+        <v>513.7899780273438</v>
       </c>
       <c r="D79">
-        <v>542.9500122070312</v>
+        <v>514.25</v>
       </c>
       <c r="E79">
-        <v>542.9500122070312</v>
+        <v>514.25</v>
       </c>
       <c r="F79">
-        <v>5713900</v>
+        <v>1736000</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>541.8099975585938</v>
+        <v>512.6900024414062</v>
       </c>
       <c r="B80">
-        <v>544.0599975585938</v>
+        <v>519.7899780273438</v>
       </c>
       <c r="C80">
-        <v>527.0499877929688</v>
+        <v>510.9599914550781</v>
       </c>
       <c r="D80">
-        <v>530.3099975585938</v>
+        <v>517.5700073242188</v>
       </c>
       <c r="E80">
-        <v>530.3099975585938</v>
+        <v>517.5700073242188</v>
       </c>
       <c r="F80">
-        <v>3442100</v>
+        <v>2534900</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>526.0499877929688</v>
+        <v>519</v>
       </c>
       <c r="B81">
-        <v>534.9099731445312</v>
+        <v>519.8499755859375</v>
       </c>
       <c r="C81">
-        <v>522.239990234375</v>
+        <v>510.510009765625</v>
       </c>
       <c r="D81">
-        <v>532.280029296875</v>
+        <v>515.1500244140625</v>
       </c>
       <c r="E81">
-        <v>532.280029296875</v>
+        <v>515.1500244140625</v>
       </c>
       <c r="F81">
-        <v>3885800</v>
+        <v>2096600</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>526.0700073242188</v>
+        <v>514.3900146484375</v>
       </c>
       <c r="B82">
-        <v>536.6400146484375</v>
+        <v>515.6300048828125</v>
       </c>
       <c r="C82">
-        <v>520.2999877929688</v>
+        <v>505.3699951171875</v>
       </c>
       <c r="D82">
-        <v>531.0499877929688</v>
+        <v>510.8200073242188</v>
       </c>
       <c r="E82">
-        <v>531.0499877929688</v>
+        <v>510.8200073242188</v>
       </c>
       <c r="F82">
-        <v>6930400</v>
+        <v>2579400</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>526.1300048828125</v>
+        <v>513</v>
       </c>
       <c r="B83">
-        <v>530.989990234375</v>
+        <v>517.97998046875</v>
       </c>
       <c r="C83">
-        <v>505.6099853515625</v>
+        <v>510.3699951171875</v>
       </c>
       <c r="D83">
-        <v>513.6300048828125</v>
+        <v>517.3499755859375</v>
       </c>
       <c r="E83">
-        <v>513.6300048828125</v>
+        <v>517.3499755859375</v>
       </c>
       <c r="F83">
-        <v>11906800</v>
+        <v>2039400</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>510.2099914550781</v>
+        <v>517.1300048828125</v>
       </c>
       <c r="B84">
-        <v>513.6799926757812</v>
+        <v>525.4099731445312</v>
       </c>
       <c r="C84">
-        <v>507</v>
+        <v>514.02001953125</v>
       </c>
       <c r="D84">
-        <v>511.7699890136719</v>
+        <v>524.8900146484375</v>
       </c>
       <c r="E84">
-        <v>511.7699890136719</v>
+        <v>524.8900146484375</v>
       </c>
       <c r="F84">
-        <v>4328100</v>
+        <v>2556700</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>512.1599731445312</v>
+        <v>524</v>
       </c>
       <c r="B85">
-        <v>517.4099731445312</v>
+        <v>526.8400268554688</v>
       </c>
       <c r="C85">
-        <v>504.6600036621094</v>
+        <v>519.3900146484375</v>
       </c>
       <c r="D85">
-        <v>515.4099731445312</v>
+        <v>520.5499877929688</v>
       </c>
       <c r="E85">
-        <v>515.4099731445312</v>
+        <v>520.5499877929688</v>
       </c>
       <c r="F85">
-        <v>3820500</v>
+        <v>1919400</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>514.3800048828125</v>
+        <v>521.1500244140625</v>
       </c>
       <c r="B86">
-        <v>521.1300048828125</v>
+        <v>522.6699829101562</v>
       </c>
       <c r="C86">
-        <v>509.010009765625</v>
+        <v>517.989990234375</v>
       </c>
       <c r="D86">
-        <v>516.489990234375</v>
+        <v>519.969970703125</v>
       </c>
       <c r="E86">
-        <v>516.489990234375</v>
+        <v>519.969970703125</v>
       </c>
       <c r="F86">
-        <v>2254500</v>
+        <v>1367800</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>518.0800170898438</v>
+        <v>520</v>
       </c>
       <c r="B87">
-        <v>521.9500122070312</v>
+        <v>520.7899780273438</v>
       </c>
       <c r="C87">
-        <v>512.0499877929688</v>
+        <v>512.969970703125</v>
       </c>
       <c r="D87">
-        <v>518.9099731445312</v>
+        <v>515.8400268554688</v>
       </c>
       <c r="E87">
-        <v>518.9099731445312</v>
+        <v>515.8400268554688</v>
       </c>
       <c r="F87">
-        <v>2759000</v>
+        <v>1960500</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>521.8200073242188</v>
+        <v>517</v>
       </c>
       <c r="B88">
-        <v>524.469970703125</v>
+        <v>519.5700073242188</v>
       </c>
       <c r="C88">
-        <v>516.97998046875</v>
+        <v>509.7699890136719</v>
       </c>
       <c r="D88">
-        <v>519.2999877929688</v>
+        <v>512.4000244140625</v>
       </c>
       <c r="E88">
-        <v>519.2999877929688</v>
+        <v>512.4000244140625</v>
       </c>
       <c r="F88">
-        <v>2390500</v>
+        <v>1673900</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>519.9600219726562</v>
+        <v>511.8599853515625</v>
       </c>
       <c r="B89">
-        <v>520.780029296875</v>
+        <v>513</v>
       </c>
       <c r="C89">
-        <v>513.7899780273438</v>
+        <v>507.2000122070312</v>
       </c>
       <c r="D89">
-        <v>514.25</v>
+        <v>510.7200012207031</v>
       </c>
       <c r="E89">
-        <v>514.25</v>
+        <v>510.7200012207031</v>
       </c>
       <c r="F89">
-        <v>1736000</v>
+        <v>1685700</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>512.6900024414062</v>
+        <v>512.6400146484375</v>
       </c>
       <c r="B90">
-        <v>519.7899780273438</v>
+        <v>521.4400024414062</v>
       </c>
       <c r="C90">
-        <v>510.9599914550781</v>
+        <v>511.510009765625</v>
       </c>
       <c r="D90">
-        <v>517.5700073242188</v>
+        <v>515.9199829101562</v>
       </c>
       <c r="E90">
-        <v>517.5700073242188</v>
+        <v>515.9199829101562</v>
       </c>
       <c r="F90">
-        <v>2534900</v>
+        <v>2176300</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>519</v>
+        <v>515.239990234375</v>
       </c>
       <c r="B91">
-        <v>519.8499755859375</v>
+        <v>523.3800048828125</v>
       </c>
       <c r="C91">
-        <v>510.510009765625</v>
+        <v>512.2999877929688</v>
       </c>
       <c r="D91">
-        <v>515.1500244140625</v>
+        <v>517.9199829101562</v>
       </c>
       <c r="E91">
-        <v>515.1500244140625</v>
+        <v>517.9199829101562</v>
       </c>
       <c r="F91">
-        <v>2096600</v>
+        <v>2032800</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>514.3900146484375</v>
+        <v>515.469970703125</v>
       </c>
       <c r="B92">
-        <v>515.6300048828125</v>
+        <v>520.7899780273438</v>
       </c>
       <c r="C92">
-        <v>505.3699951171875</v>
+        <v>514.2000122070312</v>
       </c>
       <c r="D92">
-        <v>510.8200073242188</v>
+        <v>518.9099731445312</v>
       </c>
       <c r="E92">
-        <v>510.8200073242188</v>
+        <v>518.9099731445312</v>
       </c>
       <c r="F92">
-        <v>2579400</v>
+        <v>2309800</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B93">
-        <v>517.97998046875</v>
+        <v>526.3800048828125</v>
       </c>
       <c r="C93">
-        <v>510.3699951171875</v>
+        <v>518.6500244140625</v>
       </c>
       <c r="D93">
-        <v>517.3499755859375</v>
+        <v>521.8699951171875</v>
       </c>
       <c r="E93">
-        <v>517.3499755859375</v>
+        <v>521.8699951171875</v>
       </c>
       <c r="F93">
-        <v>2039400</v>
+        <v>2582000</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>517.1300048828125</v>
+        <v>522.739990234375</v>
       </c>
       <c r="B94">
-        <v>525.4099731445312</v>
+        <v>548.3900146484375</v>
       </c>
       <c r="C94">
-        <v>514.02001953125</v>
+        <v>521.8699951171875</v>
       </c>
       <c r="D94">
-        <v>524.8900146484375</v>
+        <v>543.7100219726562</v>
       </c>
       <c r="E94">
-        <v>524.8900146484375</v>
+        <v>543.7100219726562</v>
       </c>
       <c r="F94">
-        <v>2556700</v>
+        <v>7497300</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>524</v>
+        <v>545.0900268554688</v>
       </c>
       <c r="B95">
-        <v>526.8400268554688</v>
+        <v>551.3900146484375</v>
       </c>
       <c r="C95">
-        <v>519.3900146484375</v>
+        <v>539.0999755859375</v>
       </c>
       <c r="D95">
-        <v>520.5499877929688</v>
+        <v>546.8800048828125</v>
       </c>
       <c r="E95">
-        <v>520.5499877929688</v>
+        <v>546.8800048828125</v>
       </c>
       <c r="F95">
-        <v>1919400</v>
+        <v>3774300</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>521.1500244140625</v>
+        <v>545.97998046875</v>
       </c>
       <c r="B96">
-        <v>522.6699829101562</v>
+        <v>555.5499877929688</v>
       </c>
       <c r="C96">
-        <v>517.989990234375</v>
+        <v>543.739990234375</v>
       </c>
       <c r="D96">
-        <v>519.969970703125</v>
+        <v>553.3300170898438</v>
       </c>
       <c r="E96">
-        <v>519.969970703125</v>
+        <v>553.3300170898438</v>
       </c>
       <c r="F96">
-        <v>1367800</v>
+        <v>2602000</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>520</v>
+        <v>551.47998046875</v>
       </c>
       <c r="B97">
-        <v>520.7899780273438</v>
+        <v>555.3099975585938</v>
       </c>
       <c r="C97">
-        <v>512.969970703125</v>
+        <v>549.27001953125</v>
       </c>
       <c r="D97">
-        <v>515.8400268554688</v>
+        <v>553.4099731445312</v>
       </c>
       <c r="E97">
-        <v>515.8400268554688</v>
+        <v>553.4099731445312</v>
       </c>
       <c r="F97">
-        <v>1960500</v>
+        <v>2109500</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>517</v>
+        <v>550.1599731445312</v>
       </c>
       <c r="B98">
-        <v>519.5700073242188</v>
+        <v>552.8400268554688</v>
       </c>
       <c r="C98">
-        <v>509.7699890136719</v>
+        <v>545.4500122070312</v>
       </c>
       <c r="D98">
-        <v>512.4000244140625</v>
+        <v>547.5800170898438</v>
       </c>
       <c r="E98">
-        <v>512.4000244140625</v>
+        <v>547.5800170898438</v>
       </c>
       <c r="F98">
-        <v>1673900</v>
+        <v>2065600</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>511.8599853515625</v>
+        <v>546.1599731445312</v>
       </c>
       <c r="B99">
-        <v>513</v>
+        <v>552.5999755859375</v>
       </c>
       <c r="C99">
-        <v>507.2000122070312</v>
+        <v>545.9000244140625</v>
       </c>
       <c r="D99">
-        <v>510.7200012207031</v>
+        <v>550.1199951171875</v>
       </c>
       <c r="E99">
-        <v>510.7200012207031</v>
+        <v>550.1199951171875</v>
       </c>
       <c r="F99">
-        <v>1685700</v>
+        <v>1595500</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>512.6400146484375</v>
+        <v>551.5999755859375</v>
       </c>
       <c r="B100">
-        <v>521.4400024414062</v>
+        <v>564.1699829101562</v>
       </c>
       <c r="C100">
-        <v>511.510009765625</v>
+        <v>549.25</v>
       </c>
       <c r="D100">
-        <v>515.9199829101562</v>
+        <v>558.9199829101562</v>
       </c>
       <c r="E100">
-        <v>515.9199829101562</v>
+        <v>558.9199829101562</v>
       </c>
       <c r="F100">
-        <v>2176300</v>
+        <v>3251100</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>515.239990234375</v>
+        <v>557.25</v>
       </c>
       <c r="B101">
-        <v>523.3800048828125</v>
+        <v>567.1599731445312</v>
       </c>
       <c r="C101">
-        <v>512.2999877929688</v>
+        <v>556.4500122070312</v>
       </c>
       <c r="D101">
-        <v>517.9199829101562</v>
+        <v>566.1799926757812</v>
       </c>
       <c r="E101">
-        <v>517.9199829101562</v>
+        <v>566.1799926757812</v>
       </c>
       <c r="F101">
-        <v>2032800</v>
+        <v>2434800</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>515.469970703125</v>
+        <v>566.1199951171875</v>
       </c>
       <c r="B102">
-        <v>520.7899780273438</v>
+        <v>569.47998046875</v>
       </c>
       <c r="C102">
-        <v>514.2000122070312</v>
+        <v>561.6099853515625</v>
       </c>
       <c r="D102">
-        <v>518.9099731445312</v>
+        <v>569.1900024414062</v>
       </c>
       <c r="E102">
-        <v>518.9099731445312</v>
+        <v>569.1900024414062</v>
       </c>
       <c r="F102">
-        <v>2309800</v>
+        <v>2431900</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>520</v>
+        <v>569</v>
       </c>
       <c r="B103">
-        <v>526.3800048828125</v>
+        <v>591</v>
       </c>
       <c r="C103">
-        <v>518.6500244140625</v>
+        <v>569</v>
       </c>
       <c r="D103">
-        <v>521.8699951171875</v>
+        <v>582.0700073242188</v>
       </c>
       <c r="E103">
-        <v>521.8699951171875</v>
+        <v>582.0700073242188</v>
       </c>
       <c r="F103">
-        <v>2582000</v>
+        <v>5626200</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>522.739990234375</v>
+        <v>583.6799926757812</v>
       </c>
       <c r="B104">
-        <v>548.3900146484375</v>
+        <v>598.760009765625</v>
       </c>
       <c r="C104">
-        <v>521.8699951171875</v>
+        <v>583.6799926757812</v>
       </c>
       <c r="D104">
-        <v>543.7100219726562</v>
+        <v>588.5499877929688</v>
       </c>
       <c r="E104">
-        <v>543.7100219726562</v>
+        <v>588.5499877929688</v>
       </c>
       <c r="F104">
-        <v>7497300</v>
+        <v>6179900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>545.0900268554688</v>
+        <v>585.7999877929688</v>
       </c>
       <c r="B105">
-        <v>551.3900146484375</v>
+        <v>591.8800048828125</v>
       </c>
       <c r="C105">
-        <v>539.0999755859375</v>
+        <v>583.1400146484375</v>
       </c>
       <c r="D105">
-        <v>546.8800048828125</v>
+        <v>590.530029296875</v>
       </c>
       <c r="E105">
-        <v>546.8800048828125</v>
+        <v>590.530029296875</v>
       </c>
       <c r="F105">
-        <v>3774300</v>
+        <v>2681200</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>545.97998046875</v>
+        <v>594.6900024414062</v>
       </c>
       <c r="B106">
-        <v>555.5499877929688</v>
+        <v>613.8499755859375</v>
       </c>
       <c r="C106">
-        <v>543.739990234375</v>
+        <v>593.989990234375</v>
       </c>
       <c r="D106">
-        <v>553.3300170898438</v>
+        <v>606.7100219726562</v>
       </c>
       <c r="E106">
-        <v>553.3300170898438</v>
+        <v>606.7100219726562</v>
       </c>
       <c r="F106">
-        <v>2602000</v>
+        <v>5821400</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>551.47998046875</v>
+        <v>603.8400268554688</v>
       </c>
       <c r="B107">
-        <v>555.3099975585938</v>
+        <v>615.5999755859375</v>
       </c>
       <c r="C107">
-        <v>549.27001953125</v>
+        <v>595.7100219726562</v>
       </c>
       <c r="D107">
-        <v>553.4099731445312</v>
+        <v>606.0499877929688</v>
       </c>
       <c r="E107">
-        <v>553.4099731445312</v>
+        <v>606.0499877929688</v>
       </c>
       <c r="F107">
-        <v>2109500</v>
+        <v>5424500</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>550.1599731445312</v>
+        <v>606.469970703125</v>
       </c>
       <c r="B108">
-        <v>552.8400268554688</v>
+        <v>609.4400024414062</v>
       </c>
       <c r="C108">
-        <v>545.4500122070312</v>
+        <v>596.5499877929688</v>
       </c>
       <c r="D108">
-        <v>547.5800170898438</v>
+        <v>597.5399780273438</v>
       </c>
       <c r="E108">
-        <v>547.5800170898438</v>
+        <v>597.5399780273438</v>
       </c>
       <c r="F108">
-        <v>2065600</v>
+        <v>2954200</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>546.1599731445312</v>
+        <v>598.1599731445312</v>
       </c>
       <c r="B109">
-        <v>552.5999755859375</v>
+        <v>609.4500122070312</v>
       </c>
       <c r="C109">
-        <v>545.9000244140625</v>
+        <v>593.6699829101562</v>
       </c>
       <c r="D109">
-        <v>550.1199951171875</v>
+        <v>598.719970703125</v>
       </c>
       <c r="E109">
-        <v>550.1199951171875</v>
+        <v>598.719970703125</v>
       </c>
       <c r="F109">
-        <v>1595500</v>
+        <v>3948000</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>551.5999755859375</v>
+        <v>598.5700073242188</v>
       </c>
       <c r="B110">
-        <v>564.1699829101562</v>
+        <v>598.5700073242188</v>
       </c>
       <c r="C110">
-        <v>549.25</v>
+        <v>582.780029296875</v>
       </c>
       <c r="D110">
-        <v>558.9199829101562</v>
+        <v>589.2899780273438</v>
       </c>
       <c r="E110">
-        <v>558.9199829101562</v>
+        <v>589.2899780273438</v>
       </c>
       <c r="F110">
-        <v>3251100</v>
+        <v>3062900</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>557.25</v>
+        <v>584.8900146484375</v>
       </c>
       <c r="B111">
-        <v>567.1599731445312</v>
+        <v>587.280029296875</v>
       </c>
       <c r="C111">
-        <v>556.4500122070312</v>
+        <v>575.5599975585938</v>
       </c>
       <c r="D111">
-        <v>566.1799926757812</v>
+        <v>577.760009765625</v>
       </c>
       <c r="E111">
-        <v>566.1799926757812</v>
+        <v>577.760009765625</v>
       </c>
       <c r="F111">
-        <v>2434800</v>
+        <v>3457000</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>566.1199951171875</v>
+        <v>578.1699829101562</v>
       </c>
       <c r="B112">
-        <v>569.47998046875</v>
+        <v>584.6199951171875</v>
       </c>
       <c r="C112">
-        <v>561.6099853515625</v>
+        <v>575.3699951171875</v>
       </c>
       <c r="D112">
-        <v>569.1900024414062</v>
+        <v>582.8699951171875</v>
       </c>
       <c r="E112">
-        <v>569.1900024414062</v>
+        <v>582.8699951171875</v>
       </c>
       <c r="F112">
-        <v>2431900</v>
+        <v>2755600</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>569</v>
+        <v>584.2999877929688</v>
       </c>
       <c r="B113">
-        <v>591</v>
+        <v>587.47998046875</v>
       </c>
       <c r="C113">
-        <v>569</v>
+        <v>577.719970703125</v>
       </c>
       <c r="D113">
-        <v>582.0700073242188</v>
+        <v>586.5</v>
       </c>
       <c r="E113">
-        <v>582.0700073242188</v>
+        <v>586.5</v>
       </c>
       <c r="F113">
-        <v>5626200</v>
+        <v>1832000</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>583.6799926757812</v>
+        <v>587.8499755859375</v>
       </c>
       <c r="B114">
-        <v>598.760009765625</v>
+        <v>590.280029296875</v>
       </c>
       <c r="C114">
-        <v>583.6799926757812</v>
+        <v>580.8499755859375</v>
       </c>
       <c r="D114">
-        <v>588.5499877929688</v>
+        <v>589.3499755859375</v>
       </c>
       <c r="E114">
-        <v>588.5499877929688</v>
+        <v>589.3499755859375</v>
       </c>
       <c r="F114">
-        <v>6179900</v>
+        <v>4145100</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>585.7999877929688</v>
+        <v>586.7899780273438</v>
       </c>
       <c r="B115">
-        <v>591.8800048828125</v>
+        <v>591.530029296875</v>
       </c>
       <c r="C115">
-        <v>583.1400146484375</v>
+        <v>568.0800170898438</v>
       </c>
       <c r="D115">
-        <v>590.530029296875</v>
+        <v>575.4299926757812</v>
       </c>
       <c r="E115">
-        <v>590.530029296875</v>
+        <v>575.4299926757812</v>
       </c>
       <c r="F115">
-        <v>2681200</v>
+        <v>3732200</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>594.6900024414062</v>
+        <v>578.3099975585938</v>
       </c>
       <c r="B116">
-        <v>613.8499755859375</v>
+        <v>581.8800048828125</v>
       </c>
       <c r="C116">
-        <v>593.989990234375</v>
+        <v>569.3699951171875</v>
       </c>
       <c r="D116">
-        <v>606.7100219726562</v>
+        <v>573.1400146484375</v>
       </c>
       <c r="E116">
-        <v>606.7100219726562</v>
+        <v>573.1400146484375</v>
       </c>
       <c r="F116">
-        <v>5821400</v>
+        <v>2250900</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>603.8400268554688</v>
+        <v>579.6900024414062</v>
       </c>
       <c r="B117">
-        <v>615.5999755859375</v>
+        <v>595.6500244140625</v>
       </c>
       <c r="C117">
-        <v>595.7100219726562</v>
+        <v>579.6900024414062</v>
       </c>
       <c r="D117">
-        <v>606.0499877929688</v>
+        <v>590.6500244140625</v>
       </c>
       <c r="E117">
-        <v>606.0499877929688</v>
+        <v>590.6500244140625</v>
       </c>
       <c r="F117">
-        <v>5424500</v>
+        <v>4021800</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>606.469970703125</v>
+        <v>590.7899780273438</v>
       </c>
       <c r="B118">
-        <v>609.4400024414062</v>
+        <v>599.3200073242188</v>
       </c>
       <c r="C118">
-        <v>596.5499877929688</v>
+        <v>589.1300048828125</v>
       </c>
       <c r="D118">
-        <v>597.5399780273438</v>
+        <v>593.260009765625</v>
       </c>
       <c r="E118">
-        <v>597.5399780273438</v>
+        <v>593.260009765625</v>
       </c>
       <c r="F118">
-        <v>2954200</v>
+        <v>2526200</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>598.1599731445312</v>
+        <v>592.5</v>
       </c>
       <c r="B119">
-        <v>609.4500122070312</v>
+        <v>592.97998046875</v>
       </c>
       <c r="C119">
-        <v>593.6699829101562</v>
+        <v>583.6400146484375</v>
       </c>
       <c r="D119">
-        <v>598.719970703125</v>
+        <v>592.3900146484375</v>
       </c>
       <c r="E119">
-        <v>598.719970703125</v>
+        <v>592.3900146484375</v>
       </c>
       <c r="F119">
-        <v>3948000</v>
+        <v>2126200</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>598.5700073242188</v>
+        <v>587.9500122070312</v>
       </c>
       <c r="B120">
-        <v>598.5700073242188</v>
+        <v>593.5800170898438</v>
       </c>
       <c r="C120">
-        <v>582.780029296875</v>
+        <v>576.9299926757812</v>
       </c>
       <c r="D120">
-        <v>589.2899780273438</v>
+        <v>592.6400146484375</v>
       </c>
       <c r="E120">
-        <v>589.2899780273438</v>
+        <v>592.6400146484375</v>
       </c>
       <c r="F120">
-        <v>3062900</v>
+        <v>2504700</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>584.8900146484375</v>
+        <v>589</v>
       </c>
       <c r="B121">
-        <v>587.280029296875</v>
+        <v>599.5399780273438</v>
       </c>
       <c r="C121">
-        <v>575.5599975585938</v>
+        <v>580.1599731445312</v>
       </c>
       <c r="D121">
-        <v>577.760009765625</v>
+        <v>583.8499755859375</v>
       </c>
       <c r="E121">
-        <v>577.760009765625</v>
+        <v>583.8499755859375</v>
       </c>
       <c r="F121">
-        <v>3457000</v>
+        <v>4431100</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>578.1699829101562</v>
+        <v>589.010009765625</v>
       </c>
       <c r="B122">
-        <v>584.6199951171875</v>
+        <v>609.8800048828125</v>
       </c>
       <c r="C122">
-        <v>575.3699951171875</v>
+        <v>588.010009765625</v>
       </c>
       <c r="D122">
-        <v>582.8699951171875</v>
+        <v>599.0599975585938</v>
       </c>
       <c r="E122">
-        <v>582.8699951171875</v>
+        <v>599.0599975585938</v>
       </c>
       <c r="F122">
-        <v>2755600</v>
+        <v>6221000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>584.2999877929688</v>
+        <v>608.0499877929688</v>
       </c>
       <c r="B123">
-        <v>587.47998046875</v>
+        <v>619</v>
       </c>
       <c r="C123">
-        <v>577.719970703125</v>
+        <v>608.0499877929688</v>
       </c>
       <c r="D123">
-        <v>586.5</v>
+        <v>610.3400268554688</v>
       </c>
       <c r="E123">
-        <v>586.5</v>
+        <v>610.3400268554688</v>
       </c>
       <c r="F123">
-        <v>1832000</v>
+        <v>6612600</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>587.8499755859375</v>
+        <v>604.239990234375</v>
       </c>
       <c r="B124">
-        <v>590.280029296875</v>
+        <v>614.989990234375</v>
       </c>
       <c r="C124">
-        <v>580.8499755859375</v>
+        <v>597.510009765625</v>
       </c>
       <c r="D124">
-        <v>589.3499755859375</v>
+        <v>613.1500244140625</v>
       </c>
       <c r="E124">
-        <v>589.3499755859375</v>
+        <v>613.1500244140625</v>
       </c>
       <c r="F124">
-        <v>4143700</v>
+        <v>4090800</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>586.7899780273438</v>
+        <v>613.3900146484375</v>
       </c>
       <c r="B125">
-        <v>591.530029296875</v>
+        <v>626.1300048828125</v>
       </c>
       <c r="C125">
-        <v>568.0800170898438</v>
+        <v>594.6799926757812</v>
       </c>
       <c r="D125">
-        <v>575.4299926757812</v>
+        <v>603.3499755859375</v>
       </c>
       <c r="E125">
-        <v>575.4299926757812</v>
+        <v>603.3499755859375</v>
       </c>
       <c r="F125">
-        <v>3732200</v>
+        <v>4995900</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>578.3099975585938</v>
+        <v>606.9400024414062</v>
       </c>
       <c r="B126">
-        <v>581.8800048828125</v>
+        <v>640.3900146484375</v>
       </c>
       <c r="C126">
-        <v>569.3699951171875</v>
+        <v>606.8900146484375</v>
       </c>
       <c r="D126">
-        <v>573.1400146484375</v>
+        <v>634.8099975585938</v>
       </c>
       <c r="E126">
-        <v>573.1400146484375</v>
+        <v>634.8099975585938</v>
       </c>
       <c r="F126">
-        <v>2250900</v>
+        <v>9534300</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>579.6900024414062</v>
+        <v>628.1799926757812</v>
       </c>
       <c r="B127">
-        <v>595.6500244140625</v>
+        <v>639.8699951171875</v>
       </c>
       <c r="C127">
-        <v>579.6900024414062</v>
+        <v>626.3599853515625</v>
       </c>
       <c r="D127">
-        <v>590.6500244140625</v>
+        <v>639.0999755859375</v>
       </c>
       <c r="E127">
-        <v>590.6500244140625</v>
+        <v>639.0999755859375</v>
       </c>
       <c r="F127">
-        <v>4021800</v>
+        <v>4580400</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>590.7899780273438</v>
+        <v>642.22998046875</v>
       </c>
       <c r="B128">
-        <v>599.3200073242188</v>
+        <v>646.8400268554688</v>
       </c>
       <c r="C128">
-        <v>589.1300048828125</v>
+        <v>630.4500122070312</v>
       </c>
       <c r="D128">
-        <v>593.260009765625</v>
+        <v>631.8499755859375</v>
       </c>
       <c r="E128">
-        <v>593.260009765625</v>
+        <v>631.8499755859375</v>
       </c>
       <c r="F128">
-        <v>2526200</v>
+        <v>3556900</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>592.5</v>
+        <v>634.1699829101562</v>
       </c>
       <c r="B129">
-        <v>592.97998046875</v>
+        <v>643.7999877929688</v>
       </c>
       <c r="C129">
-        <v>583.6400146484375</v>
+        <v>630.8599853515625</v>
       </c>
       <c r="D129">
-        <v>592.3900146484375</v>
+        <v>632.6599731445312</v>
       </c>
       <c r="E129">
-        <v>592.3900146484375</v>
+        <v>632.6599731445312</v>
       </c>
       <c r="F129">
-        <v>2124800</v>
+        <v>3271100</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/NFLX/NFLX_HighLow.xlsx
+++ b/Stocks/NFLX/NFLX_HighLow.xlsx
@@ -417,1702 +417,1702 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>552.6900024414062</v>
+        <v>546.9000244140625</v>
       </c>
       <c r="B2">
-        <v>556.9000244140625</v>
+        <v>556.4400024414062</v>
       </c>
       <c r="C2">
-        <v>547.1099853515625</v>
+        <v>545.530029296875</v>
       </c>
       <c r="D2">
-        <v>555.3099975585938</v>
+        <v>554.4400024414062</v>
       </c>
       <c r="E2">
-        <v>555.3099975585938</v>
+        <v>554.4400024414062</v>
       </c>
       <c r="F2">
-        <v>2894000</v>
+        <v>4288700</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>551.0499877929688</v>
+        <v>554.4199829101562</v>
       </c>
       <c r="B3">
-        <v>557.97998046875</v>
+        <v>563.5599975585938</v>
       </c>
       <c r="C3">
-        <v>549.5800170898438</v>
+        <v>546.2999877929688</v>
       </c>
       <c r="D3">
-        <v>552.780029296875</v>
+        <v>549.5700073242188</v>
       </c>
       <c r="E3">
-        <v>552.780029296875</v>
+        <v>549.5700073242188</v>
       </c>
       <c r="F3">
-        <v>2944100</v>
+        <v>11257600</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>557</v>
+        <v>508</v>
       </c>
       <c r="B4">
-        <v>559.75</v>
+        <v>515.4600219726562</v>
       </c>
       <c r="C4">
-        <v>550.2999877929688</v>
+        <v>503.6000061035156</v>
       </c>
       <c r="D4">
-        <v>553.72998046875</v>
+        <v>508.8999938964844</v>
       </c>
       <c r="E4">
-        <v>553.72998046875</v>
+        <v>508.8999938964844</v>
       </c>
       <c r="F4">
-        <v>2720300</v>
+        <v>22897400</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>554.8699951171875</v>
+        <v>513.8200073242188</v>
       </c>
       <c r="B5">
-        <v>554.8699951171875</v>
+        <v>513.9600219726562</v>
       </c>
       <c r="C5">
-        <v>538.530029296875</v>
+        <v>500.5499877929688</v>
       </c>
       <c r="D5">
-        <v>540.02001953125</v>
+        <v>508.7799987792969</v>
       </c>
       <c r="E5">
-        <v>540.02001953125</v>
+        <v>508.7799987792969</v>
       </c>
       <c r="F5">
-        <v>3740300</v>
+        <v>9061100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>544.1699829101562</v>
+        <v>509.010009765625</v>
       </c>
       <c r="B6">
-        <v>553.489990234375</v>
+        <v>509.7000122070312</v>
       </c>
       <c r="C6">
-        <v>542.6599731445312</v>
+        <v>500.7000122070312</v>
       </c>
       <c r="D6">
-        <v>549.219970703125</v>
+        <v>505.5499877929688</v>
       </c>
       <c r="E6">
-        <v>549.219970703125</v>
+        <v>505.5499877929688</v>
       </c>
       <c r="F6">
-        <v>3139100</v>
+        <v>7307700</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>550.5399780273438</v>
+        <v>506.760009765625</v>
       </c>
       <c r="B7">
-        <v>551.97998046875</v>
+        <v>510.4800109863281</v>
       </c>
       <c r="C7">
-        <v>539.510009765625</v>
+        <v>503</v>
       </c>
       <c r="D7">
-        <v>546.5399780273438</v>
+        <v>510.2999877929688</v>
       </c>
       <c r="E7">
-        <v>546.5399780273438</v>
+        <v>510.2999877929688</v>
       </c>
       <c r="F7">
-        <v>3209100</v>
+        <v>4388800</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>546.9000244140625</v>
+        <v>512.6199951171875</v>
       </c>
       <c r="B8">
-        <v>556.4400024414062</v>
+        <v>512.989990234375</v>
       </c>
       <c r="C8">
-        <v>545.530029296875</v>
+        <v>504.5799865722656</v>
       </c>
       <c r="D8">
-        <v>554.4400024414062</v>
+        <v>505.5499877929688</v>
       </c>
       <c r="E8">
-        <v>554.4400024414062</v>
+        <v>505.5499877929688</v>
       </c>
       <c r="F8">
-        <v>4288700</v>
+        <v>3761300</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>554.4199829101562</v>
+        <v>505.2000122070312</v>
       </c>
       <c r="B9">
-        <v>563.5599975585938</v>
+        <v>508.3999938964844</v>
       </c>
       <c r="C9">
-        <v>546.2999877929688</v>
+        <v>503.3399963378906</v>
       </c>
       <c r="D9">
-        <v>549.5700073242188</v>
+        <v>506.5199890136719</v>
       </c>
       <c r="E9">
-        <v>549.5700073242188</v>
+        <v>506.5199890136719</v>
       </c>
       <c r="F9">
-        <v>11257600</v>
+        <v>3193000</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>508</v>
+        <v>507.6000061035156</v>
       </c>
       <c r="B10">
-        <v>515.4600219726562</v>
+        <v>509.2900085449219</v>
       </c>
       <c r="C10">
-        <v>503.6000061035156</v>
+        <v>499</v>
       </c>
       <c r="D10">
-        <v>508.8999938964844</v>
+        <v>509</v>
       </c>
       <c r="E10">
-        <v>508.8999938964844</v>
+        <v>509</v>
       </c>
       <c r="F10">
-        <v>22897400</v>
+        <v>5127800</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>513.8200073242188</v>
+        <v>505</v>
       </c>
       <c r="B11">
-        <v>513.9600219726562</v>
+        <v>514.5499877929688</v>
       </c>
       <c r="C11">
-        <v>500.5499877929688</v>
+        <v>505</v>
       </c>
       <c r="D11">
-        <v>508.7799987792969</v>
+        <v>513.469970703125</v>
       </c>
       <c r="E11">
-        <v>508.7799987792969</v>
+        <v>513.469970703125</v>
       </c>
       <c r="F11">
-        <v>9061100</v>
+        <v>4413200</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>509.010009765625</v>
+        <v>512.6500244140625</v>
       </c>
       <c r="B12">
-        <v>509.7000122070312</v>
+        <v>518.9500122070312</v>
       </c>
       <c r="C12">
-        <v>500.7000122070312</v>
+        <v>505.2000122070312</v>
       </c>
       <c r="D12">
-        <v>505.5499877929688</v>
+        <v>509.1099853515625</v>
       </c>
       <c r="E12">
-        <v>505.5499877929688</v>
+        <v>509.1099853515625</v>
       </c>
       <c r="F12">
-        <v>7307700</v>
+        <v>4091900</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>506.760009765625</v>
+        <v>510.7799987792969</v>
       </c>
       <c r="B13">
-        <v>510.4800109863281</v>
+        <v>511.6300048828125</v>
       </c>
       <c r="C13">
-        <v>503</v>
+        <v>496.7900085449219</v>
       </c>
       <c r="D13">
-        <v>510.2999877929688</v>
+        <v>503.1799926757812</v>
       </c>
       <c r="E13">
-        <v>510.2999877929688</v>
+        <v>503.1799926757812</v>
       </c>
       <c r="F13">
-        <v>4388800</v>
+        <v>4349500</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>512.6199951171875</v>
+        <v>504.989990234375</v>
       </c>
       <c r="B14">
-        <v>512.989990234375</v>
+        <v>507.7799987792969</v>
       </c>
       <c r="C14">
-        <v>504.5799865722656</v>
+        <v>494.6300048828125</v>
       </c>
       <c r="D14">
-        <v>505.5499877929688</v>
+        <v>496.0799865722656</v>
       </c>
       <c r="E14">
-        <v>505.5499877929688</v>
+        <v>496.0799865722656</v>
       </c>
       <c r="F14">
-        <v>3761300</v>
+        <v>3129400</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>505.2000122070312</v>
+        <v>495.989990234375</v>
       </c>
       <c r="B15">
-        <v>508.3999938964844</v>
+        <v>499.5499877929688</v>
       </c>
       <c r="C15">
-        <v>503.3399963378906</v>
+        <v>491.3699951171875</v>
       </c>
       <c r="D15">
-        <v>506.5199890136719</v>
+        <v>499.5499877929688</v>
       </c>
       <c r="E15">
-        <v>506.5199890136719</v>
+        <v>499.5499877929688</v>
       </c>
       <c r="F15">
-        <v>3193000</v>
+        <v>3783700</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>507.6000061035156</v>
+        <v>504.6199951171875</v>
       </c>
       <c r="B16">
-        <v>509.2900085449219</v>
+        <v>508.5499877929688</v>
       </c>
       <c r="C16">
-        <v>499</v>
+        <v>501.1199951171875</v>
       </c>
       <c r="D16">
-        <v>509</v>
+        <v>503.8399963378906</v>
       </c>
       <c r="E16">
-        <v>509</v>
+        <v>503.8399963378906</v>
       </c>
       <c r="F16">
-        <v>5127800</v>
+        <v>3132800</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B17">
-        <v>514.5499877929688</v>
+        <v>503.1499938964844</v>
       </c>
       <c r="C17">
-        <v>505</v>
+        <v>486.1099853515625</v>
       </c>
       <c r="D17">
-        <v>513.469970703125</v>
+        <v>486.6900024414062</v>
       </c>
       <c r="E17">
-        <v>513.469970703125</v>
+        <v>486.6900024414062</v>
       </c>
       <c r="F17">
-        <v>4413200</v>
+        <v>5131600</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>512.6500244140625</v>
+        <v>479.75</v>
       </c>
       <c r="B18">
-        <v>518.9500122070312</v>
+        <v>497.989990234375</v>
       </c>
       <c r="C18">
-        <v>505.2000122070312</v>
+        <v>478.6300048828125</v>
       </c>
       <c r="D18">
-        <v>509.1099853515625</v>
+        <v>495.0799865722656</v>
       </c>
       <c r="E18">
-        <v>509.1099853515625</v>
+        <v>495.0799865722656</v>
       </c>
       <c r="F18">
-        <v>4091900</v>
+        <v>4401000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>510.7799987792969</v>
+        <v>486.8299865722656</v>
       </c>
       <c r="B19">
-        <v>511.6300048828125</v>
+        <v>493.5400085449219</v>
       </c>
       <c r="C19">
-        <v>496.7900085449219</v>
+        <v>482.7000122070312</v>
       </c>
       <c r="D19">
-        <v>503.1799926757812</v>
+        <v>484.9800109863281</v>
       </c>
       <c r="E19">
-        <v>503.1799926757812</v>
+        <v>484.9800109863281</v>
       </c>
       <c r="F19">
-        <v>4349500</v>
+        <v>4121500</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>504.989990234375</v>
+        <v>489.1300048828125</v>
       </c>
       <c r="B20">
-        <v>507.7799987792969</v>
+        <v>490.7799987792969</v>
       </c>
       <c r="C20">
-        <v>494.6300048828125</v>
+        <v>482.7099914550781</v>
       </c>
       <c r="D20">
-        <v>496.0799865722656</v>
+        <v>486.6600036621094</v>
       </c>
       <c r="E20">
-        <v>496.0799865722656</v>
+        <v>486.6600036621094</v>
       </c>
       <c r="F20">
-        <v>3129400</v>
+        <v>2712500</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>495.989990234375</v>
+        <v>487.8599853515625</v>
       </c>
       <c r="B21">
-        <v>499.5499877929688</v>
+        <v>494.8500061035156</v>
       </c>
       <c r="C21">
-        <v>491.3699951171875</v>
+        <v>486.5899963378906</v>
       </c>
       <c r="D21">
-        <v>499.5499877929688</v>
+        <v>493.3699951171875</v>
       </c>
       <c r="E21">
-        <v>499.5499877929688</v>
+        <v>493.3699951171875</v>
       </c>
       <c r="F21">
-        <v>3783700</v>
+        <v>2882500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>504.6199951171875</v>
+        <v>485.5899963378906</v>
       </c>
       <c r="B22">
-        <v>508.5499877929688</v>
+        <v>492.7099914550781</v>
       </c>
       <c r="C22">
-        <v>501.1199951171875</v>
+        <v>482.8099975585938</v>
       </c>
       <c r="D22">
-        <v>503.8399963378906</v>
+        <v>488.9400024414062</v>
       </c>
       <c r="E22">
-        <v>503.8399963378906</v>
+        <v>488.9400024414062</v>
       </c>
       <c r="F22">
-        <v>3132800</v>
+        <v>2705200</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>502</v>
+        <v>488.3999938964844</v>
       </c>
       <c r="B23">
-        <v>503.1499938964844</v>
+        <v>493.4800109863281</v>
       </c>
       <c r="C23">
-        <v>486.1099853515625</v>
+        <v>486.1900024414062</v>
       </c>
       <c r="D23">
-        <v>486.6900024414062</v>
+        <v>486.2799987792969</v>
       </c>
       <c r="E23">
-        <v>486.6900024414062</v>
+        <v>486.2799987792969</v>
       </c>
       <c r="F23">
-        <v>5131600</v>
+        <v>2350500</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>479.75</v>
+        <v>481.6300048828125</v>
       </c>
       <c r="B24">
-        <v>497.989990234375</v>
+        <v>488.5700073242188</v>
       </c>
       <c r="C24">
-        <v>478.6300048828125</v>
+        <v>478.5400085449219</v>
       </c>
       <c r="D24">
-        <v>495.0799865722656</v>
+        <v>487.7000122070312</v>
       </c>
       <c r="E24">
-        <v>495.0799865722656</v>
+        <v>487.7000122070312</v>
       </c>
       <c r="F24">
-        <v>4401000</v>
+        <v>3349900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>486.8299865722656</v>
+        <v>489.5499877929688</v>
       </c>
       <c r="B25">
-        <v>493.5400085449219</v>
+        <v>502.7000122070312</v>
       </c>
       <c r="C25">
-        <v>482.7000122070312</v>
+        <v>488.9800109863281</v>
       </c>
       <c r="D25">
-        <v>484.9800109863281</v>
+        <v>501.6700134277344</v>
       </c>
       <c r="E25">
-        <v>484.9800109863281</v>
+        <v>501.6700134277344</v>
       </c>
       <c r="F25">
-        <v>4121500</v>
+        <v>3721200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>489.1300048828125</v>
+        <v>503.1199951171875</v>
       </c>
       <c r="B26">
-        <v>490.7799987792969</v>
+        <v>505.3999938964844</v>
       </c>
       <c r="C26">
-        <v>482.7099914550781</v>
+        <v>497.260009765625</v>
       </c>
       <c r="D26">
-        <v>486.6600036621094</v>
+        <v>497.8900146484375</v>
       </c>
       <c r="E26">
-        <v>486.6600036621094</v>
+        <v>497.8900146484375</v>
       </c>
       <c r="F26">
-        <v>2712500</v>
+        <v>3322900</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>487.8599853515625</v>
+        <v>501.0499877929688</v>
       </c>
       <c r="B27">
-        <v>494.8500061035156</v>
+        <v>504.25</v>
       </c>
       <c r="C27">
-        <v>486.5899963378906</v>
+        <v>499.510009765625</v>
       </c>
       <c r="D27">
-        <v>493.3699951171875</v>
+        <v>502.8999938964844</v>
       </c>
       <c r="E27">
-        <v>493.3699951171875</v>
+        <v>502.8999938964844</v>
       </c>
       <c r="F27">
-        <v>2882500</v>
+        <v>2412600</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>485.5899963378906</v>
+        <v>506</v>
       </c>
       <c r="B28">
-        <v>492.7099914550781</v>
+        <v>506.3699951171875</v>
       </c>
       <c r="C28">
-        <v>482.8099975585938</v>
+        <v>499.2200012207031</v>
       </c>
       <c r="D28">
-        <v>488.9400024414062</v>
+        <v>501.3399963378906</v>
       </c>
       <c r="E28">
-        <v>488.9400024414062</v>
+        <v>501.3399963378906</v>
       </c>
       <c r="F28">
-        <v>2705200</v>
+        <v>2699500</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>488.3999938964844</v>
+        <v>502.3399963378906</v>
       </c>
       <c r="B29">
-        <v>493.4800109863281</v>
+        <v>504.1400146484375</v>
       </c>
       <c r="C29">
-        <v>486.1900024414062</v>
+        <v>500.5</v>
       </c>
       <c r="D29">
-        <v>486.2799987792969</v>
+        <v>502.3599853515625</v>
       </c>
       <c r="E29">
-        <v>486.2799987792969</v>
+        <v>502.3599853515625</v>
       </c>
       <c r="F29">
-        <v>2350500</v>
+        <v>2465300</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>481.6300048828125</v>
+        <v>501.7999877929688</v>
       </c>
       <c r="B30">
-        <v>488.5700073242188</v>
+        <v>505.1000061035156</v>
       </c>
       <c r="C30">
-        <v>478.5400085449219</v>
+        <v>498.5400085449219</v>
       </c>
       <c r="D30">
-        <v>487.7000122070312</v>
+        <v>503.8599853515625</v>
       </c>
       <c r="E30">
-        <v>487.7000122070312</v>
+        <v>503.8599853515625</v>
       </c>
       <c r="F30">
-        <v>3349900</v>
+        <v>3253800</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>489.5499877929688</v>
+        <v>504.3999938964844</v>
       </c>
       <c r="B31">
-        <v>502.7000122070312</v>
+        <v>511.760009765625</v>
       </c>
       <c r="C31">
-        <v>488.9800109863281</v>
+        <v>502.5299987792969</v>
       </c>
       <c r="D31">
-        <v>501.6700134277344</v>
+        <v>502.8099975585938</v>
       </c>
       <c r="E31">
-        <v>501.6700134277344</v>
+        <v>502.8099975585938</v>
       </c>
       <c r="F31">
-        <v>3721200</v>
+        <v>2910300</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>503.1199951171875</v>
+        <v>504.010009765625</v>
       </c>
       <c r="B32">
-        <v>505.3999938964844</v>
+        <v>505.4100036621094</v>
       </c>
       <c r="C32">
-        <v>497.260009765625</v>
+        <v>497.739990234375</v>
       </c>
       <c r="D32">
-        <v>497.8900146484375</v>
+        <v>499.0799865722656</v>
       </c>
       <c r="E32">
-        <v>497.8900146484375</v>
+        <v>499.0799865722656</v>
       </c>
       <c r="F32">
-        <v>3322900</v>
+        <v>2482600</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>501.0499877929688</v>
+        <v>499.8200073242188</v>
       </c>
       <c r="B33">
-        <v>504.25</v>
+        <v>503.2200012207031</v>
       </c>
       <c r="C33">
-        <v>499.510009765625</v>
+        <v>495.8200073242188</v>
       </c>
       <c r="D33">
-        <v>502.8999938964844</v>
+        <v>499.239990234375</v>
       </c>
       <c r="E33">
-        <v>502.8999938964844</v>
+        <v>499.239990234375</v>
       </c>
       <c r="F33">
-        <v>2412600</v>
+        <v>2269000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>506</v>
+        <v>495.1900024414062</v>
       </c>
       <c r="B34">
-        <v>506.3699951171875</v>
+        <v>496.6600036621094</v>
       </c>
       <c r="C34">
-        <v>499.2200012207031</v>
+        <v>487.25</v>
       </c>
       <c r="D34">
-        <v>501.3399963378906</v>
+        <v>489.4299926757812</v>
       </c>
       <c r="E34">
-        <v>501.3399963378906</v>
+        <v>489.4299926757812</v>
       </c>
       <c r="F34">
-        <v>2699500</v>
+        <v>3887400</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>502.3399963378906</v>
+        <v>492</v>
       </c>
       <c r="B35">
-        <v>504.1400146484375</v>
+        <v>501.8599853515625</v>
       </c>
       <c r="C35">
-        <v>500.5</v>
+        <v>490.9500122070312</v>
       </c>
       <c r="D35">
-        <v>502.3599853515625</v>
+        <v>494.739990234375</v>
       </c>
       <c r="E35">
-        <v>502.3599853515625</v>
+        <v>494.739990234375</v>
       </c>
       <c r="F35">
-        <v>2465300</v>
+        <v>3160500</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>501.7999877929688</v>
+        <v>492.9200134277344</v>
       </c>
       <c r="B36">
-        <v>505.1000061035156</v>
+        <v>496.7000122070312</v>
       </c>
       <c r="C36">
-        <v>498.5400085449219</v>
+        <v>490.5499877929688</v>
       </c>
       <c r="D36">
-        <v>503.8599853515625</v>
+        <v>494.6600036621094</v>
       </c>
       <c r="E36">
-        <v>503.8599853515625</v>
+        <v>494.6600036621094</v>
       </c>
       <c r="F36">
-        <v>3253800</v>
+        <v>2791900</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>504.3999938964844</v>
+        <v>497</v>
       </c>
       <c r="B37">
-        <v>511.760009765625</v>
+        <v>498.8200073242188</v>
       </c>
       <c r="C37">
-        <v>502.5299987792969</v>
+        <v>489.3699951171875</v>
       </c>
       <c r="D37">
-        <v>502.8099975585938</v>
+        <v>492.3900146484375</v>
       </c>
       <c r="E37">
-        <v>502.8099975585938</v>
+        <v>492.3900146484375</v>
       </c>
       <c r="F37">
-        <v>2910300</v>
+        <v>2374000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>504.010009765625</v>
+        <v>494.5</v>
       </c>
       <c r="B38">
-        <v>505.4100036621094</v>
+        <v>496.0899963378906</v>
       </c>
       <c r="C38">
-        <v>497.739990234375</v>
+        <v>484.6499938964844</v>
       </c>
       <c r="D38">
-        <v>499.0799865722656</v>
+        <v>485.8099975585938</v>
       </c>
       <c r="E38">
-        <v>499.0799865722656</v>
+        <v>485.8099975585938</v>
       </c>
       <c r="F38">
-        <v>2482600</v>
+        <v>3055000</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>499.8200073242188</v>
+        <v>487.1700134277344</v>
       </c>
       <c r="B39">
-        <v>503.2200012207031</v>
+        <v>490.2099914550781</v>
       </c>
       <c r="C39">
-        <v>495.8200073242188</v>
+        <v>482.1400146484375</v>
       </c>
       <c r="D39">
-        <v>499.239990234375</v>
+        <v>487.2699890136719</v>
       </c>
       <c r="E39">
-        <v>499.239990234375</v>
+        <v>487.2699890136719</v>
       </c>
       <c r="F39">
-        <v>2269000</v>
+        <v>4382900</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>495.1900024414062</v>
+        <v>490</v>
       </c>
       <c r="B40">
-        <v>496.6600036621094</v>
+        <v>491.4100036621094</v>
       </c>
       <c r="C40">
-        <v>487.25</v>
+        <v>487.7799987792969</v>
       </c>
       <c r="D40">
-        <v>489.4299926757812</v>
+        <v>488.7699890136719</v>
       </c>
       <c r="E40">
-        <v>489.4299926757812</v>
+        <v>488.7699890136719</v>
       </c>
       <c r="F40">
-        <v>3887400</v>
+        <v>3124000</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>492</v>
+        <v>489.6799926757812</v>
       </c>
       <c r="B41">
-        <v>501.8599853515625</v>
+        <v>503.5</v>
       </c>
       <c r="C41">
-        <v>490.9500122070312</v>
+        <v>486.9100036621094</v>
       </c>
       <c r="D41">
-        <v>494.739990234375</v>
+        <v>499.8900146484375</v>
       </c>
       <c r="E41">
-        <v>494.739990234375</v>
+        <v>499.8900146484375</v>
       </c>
       <c r="F41">
-        <v>3160500</v>
+        <v>4400200</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>492.9200134277344</v>
+        <v>501.2300109863281</v>
       </c>
       <c r="B42">
-        <v>496.7000122070312</v>
+        <v>501.2300109863281</v>
       </c>
       <c r="C42">
-        <v>490.5499877929688</v>
+        <v>490.3999938964844</v>
       </c>
       <c r="D42">
-        <v>494.6600036621094</v>
+        <v>491.8999938964844</v>
       </c>
       <c r="E42">
-        <v>494.6600036621094</v>
+        <v>491.8999938964844</v>
       </c>
       <c r="F42">
-        <v>2791900</v>
+        <v>3104100</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B43">
-        <v>498.8200073242188</v>
+        <v>496.4599914550781</v>
       </c>
       <c r="C43">
-        <v>489.3699951171875</v>
+        <v>486.2799987792969</v>
       </c>
       <c r="D43">
-        <v>492.3900146484375</v>
+        <v>492.4100036621094</v>
       </c>
       <c r="E43">
-        <v>492.3900146484375</v>
+        <v>492.4100036621094</v>
       </c>
       <c r="F43">
-        <v>2374000</v>
+        <v>3533200</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>494.5</v>
+        <v>490.25</v>
       </c>
       <c r="B44">
-        <v>496.0899963378906</v>
+        <v>501.7999877929688</v>
       </c>
       <c r="C44">
-        <v>484.6499938964844</v>
+        <v>490.1499938964844</v>
       </c>
       <c r="D44">
-        <v>485.8099975585938</v>
+        <v>498.3399963378906</v>
       </c>
       <c r="E44">
-        <v>485.8099975585938</v>
+        <v>498.3399963378906</v>
       </c>
       <c r="F44">
-        <v>3055000</v>
+        <v>3198300</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>487.1700134277344</v>
+        <v>496.3999938964844</v>
       </c>
       <c r="B45">
-        <v>490.2099914550781</v>
+        <v>504.489990234375</v>
       </c>
       <c r="C45">
-        <v>482.1400146484375</v>
+        <v>495.239990234375</v>
       </c>
       <c r="D45">
-        <v>487.2699890136719</v>
+        <v>500.7699890136719</v>
       </c>
       <c r="E45">
-        <v>487.2699890136719</v>
+        <v>500.7699890136719</v>
       </c>
       <c r="F45">
-        <v>4382900</v>
+        <v>5197600</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>490</v>
+        <v>501.6400146484375</v>
       </c>
       <c r="B46">
-        <v>491.4100036621094</v>
+        <v>502.0499877929688</v>
       </c>
       <c r="C46">
-        <v>487.7799987792969</v>
+        <v>492.2799987792969</v>
       </c>
       <c r="D46">
-        <v>488.7699890136719</v>
+        <v>497</v>
       </c>
       <c r="E46">
-        <v>488.7699890136719</v>
+        <v>497</v>
       </c>
       <c r="F46">
-        <v>3124000</v>
+        <v>5277300</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>489.6799926757812</v>
+        <v>498.5400085449219</v>
       </c>
       <c r="B47">
-        <v>503.5</v>
+        <v>513.5499877929688</v>
       </c>
       <c r="C47">
-        <v>486.9100036621094</v>
+        <v>495.7999877929688</v>
       </c>
       <c r="D47">
-        <v>499.8900146484375</v>
+        <v>508.8200073242188</v>
       </c>
       <c r="E47">
-        <v>499.8900146484375</v>
+        <v>508.8200073242188</v>
       </c>
       <c r="F47">
-        <v>4400200</v>
+        <v>5809300</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>501.2300109863281</v>
+        <v>508.4800109863281</v>
       </c>
       <c r="B48">
-        <v>501.2300109863281</v>
+        <v>516.6300048828125</v>
       </c>
       <c r="C48">
-        <v>490.3999938964844</v>
+        <v>508.2000122070312</v>
       </c>
       <c r="D48">
-        <v>491.8999938964844</v>
+        <v>512.739990234375</v>
       </c>
       <c r="E48">
-        <v>491.8999938964844</v>
+        <v>512.739990234375</v>
       </c>
       <c r="F48">
-        <v>3104100</v>
+        <v>3944800</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>495</v>
+        <v>517.9600219726562</v>
       </c>
       <c r="B49">
-        <v>496.4599914550781</v>
+        <v>520.9600219726562</v>
       </c>
       <c r="C49">
-        <v>486.2799987792969</v>
+        <v>514.4000244140625</v>
       </c>
       <c r="D49">
-        <v>492.4100036621094</v>
+        <v>518.0599975585938</v>
       </c>
       <c r="E49">
-        <v>492.4100036621094</v>
+        <v>518.0599975585938</v>
       </c>
       <c r="F49">
-        <v>3533200</v>
+        <v>3361200</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>490.25</v>
+        <v>528.8400268554688</v>
       </c>
       <c r="B50">
-        <v>501.7999877929688</v>
+        <v>533.0599975585938</v>
       </c>
       <c r="C50">
-        <v>490.1499938964844</v>
+        <v>525</v>
       </c>
       <c r="D50">
-        <v>498.3399963378906</v>
+        <v>527.0700073242188</v>
       </c>
       <c r="E50">
-        <v>498.3399963378906</v>
+        <v>527.0700073242188</v>
       </c>
       <c r="F50">
-        <v>3198300</v>
+        <v>5299100</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>496.3999938964844</v>
+        <v>528.1199951171875</v>
       </c>
       <c r="B51">
-        <v>504.489990234375</v>
+        <v>533.9400024414062</v>
       </c>
       <c r="C51">
-        <v>495.239990234375</v>
+        <v>524.5599975585938</v>
       </c>
       <c r="D51">
-        <v>500.7699890136719</v>
+        <v>533.030029296875</v>
       </c>
       <c r="E51">
-        <v>500.7699890136719</v>
+        <v>533.030029296875</v>
       </c>
       <c r="F51">
-        <v>5197600</v>
+        <v>2820200</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>501.6400146484375</v>
+        <v>533.5499877929688</v>
       </c>
       <c r="B52">
-        <v>502.0499877929688</v>
+        <v>536.1300048828125</v>
       </c>
       <c r="C52">
-        <v>492.2799987792969</v>
+        <v>528.5700073242188</v>
       </c>
       <c r="D52">
-        <v>497</v>
+        <v>533.5</v>
       </c>
       <c r="E52">
-        <v>497</v>
+        <v>533.5</v>
       </c>
       <c r="F52">
-        <v>5277300</v>
+        <v>2314600</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>498.5400085449219</v>
+        <v>534.0599975585938</v>
       </c>
       <c r="B53">
-        <v>513.5499877929688</v>
+        <v>534.3800048828125</v>
       </c>
       <c r="C53">
-        <v>495.7999877929688</v>
+        <v>526.8200073242188</v>
       </c>
       <c r="D53">
-        <v>508.8200073242188</v>
+        <v>528.2100219726562</v>
       </c>
       <c r="E53">
-        <v>508.8200073242188</v>
+        <v>528.2100219726562</v>
       </c>
       <c r="F53">
-        <v>5809300</v>
+        <v>2773400</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>508.4800109863281</v>
+        <v>525.719970703125</v>
       </c>
       <c r="B54">
-        <v>516.6300048828125</v>
+        <v>537.0399780273438</v>
       </c>
       <c r="C54">
-        <v>508.2000122070312</v>
+        <v>525.719970703125</v>
       </c>
       <c r="D54">
-        <v>512.739990234375</v>
+        <v>533.5399780273438</v>
       </c>
       <c r="E54">
-        <v>512.739990234375</v>
+        <v>533.5399780273438</v>
       </c>
       <c r="F54">
-        <v>3944800</v>
+        <v>2805400</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>517.9600219726562</v>
+        <v>535.5</v>
       </c>
       <c r="B55">
-        <v>520.9600219726562</v>
+        <v>538.5399780273438</v>
       </c>
       <c r="C55">
-        <v>514.4000244140625</v>
+        <v>529.3900146484375</v>
       </c>
       <c r="D55">
-        <v>518.0599975585938</v>
+        <v>533.97998046875</v>
       </c>
       <c r="E55">
-        <v>518.0599975585938</v>
+        <v>533.97998046875</v>
       </c>
       <c r="F55">
-        <v>3361200</v>
+        <v>1975500</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>528.8400268554688</v>
+        <v>533</v>
       </c>
       <c r="B56">
-        <v>533.0599975585938</v>
+        <v>542.8599853515625</v>
       </c>
       <c r="C56">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="D56">
-        <v>527.0700073242188</v>
+        <v>541.6400146484375</v>
       </c>
       <c r="E56">
-        <v>527.0700073242188</v>
+        <v>541.6400146484375</v>
       </c>
       <c r="F56">
-        <v>5299100</v>
+        <v>2775100</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>528.1199951171875</v>
+        <v>544.239990234375</v>
       </c>
       <c r="B57">
-        <v>533.9400024414062</v>
+        <v>544.6400146484375</v>
       </c>
       <c r="C57">
-        <v>524.5599975585938</v>
+        <v>531.6599731445312</v>
       </c>
       <c r="D57">
-        <v>533.030029296875</v>
+        <v>535.9600219726562</v>
       </c>
       <c r="E57">
-        <v>533.030029296875</v>
+        <v>535.9600219726562</v>
       </c>
       <c r="F57">
-        <v>2820200</v>
+        <v>2722500</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>533.5499877929688</v>
+        <v>530.9299926757812</v>
       </c>
       <c r="B58">
-        <v>536.1300048828125</v>
+        <v>535.5</v>
       </c>
       <c r="C58">
-        <v>528.5700073242188</v>
+        <v>529.0900268554688</v>
       </c>
       <c r="D58">
-        <v>533.5</v>
+        <v>530.760009765625</v>
       </c>
       <c r="E58">
-        <v>533.5</v>
+        <v>530.760009765625</v>
       </c>
       <c r="F58">
-        <v>2314600</v>
+        <v>3269000</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>534.0599975585938</v>
+        <v>531</v>
       </c>
       <c r="B59">
-        <v>534.3800048828125</v>
+        <v>538.260009765625</v>
       </c>
       <c r="C59">
-        <v>526.8200073242188</v>
+        <v>528.5800170898438</v>
       </c>
       <c r="D59">
-        <v>528.2100219726562</v>
+        <v>535.97998046875</v>
       </c>
       <c r="E59">
-        <v>528.2100219726562</v>
+        <v>535.97998046875</v>
       </c>
       <c r="F59">
-        <v>2773400</v>
+        <v>2777200</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>525.719970703125</v>
+        <v>540.2999877929688</v>
       </c>
       <c r="B60">
-        <v>537.0399780273438</v>
+        <v>540.6500244140625</v>
       </c>
       <c r="C60">
-        <v>525.719970703125</v>
+        <v>532.9199829101562</v>
       </c>
       <c r="D60">
-        <v>533.5399780273438</v>
+        <v>537.3099975585938</v>
       </c>
       <c r="E60">
-        <v>533.5399780273438</v>
+        <v>537.3099975585938</v>
       </c>
       <c r="F60">
-        <v>2805400</v>
+        <v>1780700</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>535.5</v>
+        <v>535.760009765625</v>
       </c>
       <c r="B61">
-        <v>538.5399780273438</v>
+        <v>545.3300170898438</v>
       </c>
       <c r="C61">
-        <v>529.3900146484375</v>
+        <v>535.760009765625</v>
       </c>
       <c r="D61">
-        <v>533.97998046875</v>
+        <v>540.6799926757812</v>
       </c>
       <c r="E61">
-        <v>533.97998046875</v>
+        <v>540.6799926757812</v>
       </c>
       <c r="F61">
-        <v>1975500</v>
+        <v>2751600</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>533</v>
+        <v>541.010009765625</v>
       </c>
       <c r="B62">
-        <v>542.8599853515625</v>
+        <v>554.0999755859375</v>
       </c>
       <c r="C62">
-        <v>533</v>
+        <v>541.010009765625</v>
       </c>
       <c r="D62">
-        <v>541.6400146484375</v>
+        <v>547.9500122070312</v>
       </c>
       <c r="E62">
-        <v>541.6400146484375</v>
+        <v>547.9500122070312</v>
       </c>
       <c r="F62">
-        <v>2775100</v>
+        <v>4659500</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>544.239990234375</v>
+        <v>553.969970703125</v>
       </c>
       <c r="B63">
-        <v>544.6400146484375</v>
+        <v>557.5399780273438</v>
       </c>
       <c r="C63">
-        <v>531.6599731445312</v>
+        <v>538.2000122070312</v>
       </c>
       <c r="D63">
-        <v>535.9600219726562</v>
+        <v>542.9500122070312</v>
       </c>
       <c r="E63">
-        <v>535.9600219726562</v>
+        <v>542.9500122070312</v>
       </c>
       <c r="F63">
-        <v>2722500</v>
+        <v>5713900</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>530.9299926757812</v>
+        <v>541.8099975585938</v>
       </c>
       <c r="B64">
-        <v>535.5</v>
+        <v>544.0599975585938</v>
       </c>
       <c r="C64">
-        <v>529.0900268554688</v>
+        <v>527.0499877929688</v>
       </c>
       <c r="D64">
-        <v>530.760009765625</v>
+        <v>530.3099975585938</v>
       </c>
       <c r="E64">
-        <v>530.760009765625</v>
+        <v>530.3099975585938</v>
       </c>
       <c r="F64">
-        <v>3269000</v>
+        <v>3442100</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>531</v>
+        <v>526.0499877929688</v>
       </c>
       <c r="B65">
-        <v>538.260009765625</v>
+        <v>534.9099731445312</v>
       </c>
       <c r="C65">
-        <v>528.5800170898438</v>
+        <v>522.239990234375</v>
       </c>
       <c r="D65">
-        <v>535.97998046875</v>
+        <v>532.280029296875</v>
       </c>
       <c r="E65">
-        <v>535.97998046875</v>
+        <v>532.280029296875</v>
       </c>
       <c r="F65">
-        <v>2777200</v>
+        <v>3885800</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>540.2999877929688</v>
+        <v>526.0700073242188</v>
       </c>
       <c r="B66">
-        <v>540.6500244140625</v>
+        <v>536.6400146484375</v>
       </c>
       <c r="C66">
-        <v>532.9199829101562</v>
+        <v>520.2999877929688</v>
       </c>
       <c r="D66">
-        <v>537.3099975585938</v>
+        <v>531.0499877929688</v>
       </c>
       <c r="E66">
-        <v>537.3099975585938</v>
+        <v>531.0499877929688</v>
       </c>
       <c r="F66">
-        <v>1780700</v>
+        <v>6930400</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>535.760009765625</v>
+        <v>526.1300048828125</v>
       </c>
       <c r="B67">
-        <v>545.3300170898438</v>
+        <v>530.989990234375</v>
       </c>
       <c r="C67">
-        <v>535.760009765625</v>
+        <v>505.6099853515625</v>
       </c>
       <c r="D67">
-        <v>540.6799926757812</v>
+        <v>513.6300048828125</v>
       </c>
       <c r="E67">
-        <v>540.6799926757812</v>
+        <v>513.6300048828125</v>
       </c>
       <c r="F67">
-        <v>2751600</v>
+        <v>11906800</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>541.010009765625</v>
+        <v>510.2099914550781</v>
       </c>
       <c r="B68">
-        <v>554.0999755859375</v>
+        <v>513.6799926757812</v>
       </c>
       <c r="C68">
-        <v>541.010009765625</v>
+        <v>507</v>
       </c>
       <c r="D68">
-        <v>547.9500122070312</v>
+        <v>511.7699890136719</v>
       </c>
       <c r="E68">
-        <v>547.9500122070312</v>
+        <v>511.7699890136719</v>
       </c>
       <c r="F68">
-        <v>4659500</v>
+        <v>4328100</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>553.969970703125</v>
+        <v>512.1599731445312</v>
       </c>
       <c r="B69">
-        <v>557.5399780273438</v>
+        <v>517.4099731445312</v>
       </c>
       <c r="C69">
-        <v>538.2000122070312</v>
+        <v>504.6600036621094</v>
       </c>
       <c r="D69">
-        <v>542.9500122070312</v>
+        <v>515.4099731445312</v>
       </c>
       <c r="E69">
-        <v>542.9500122070312</v>
+        <v>515.4099731445312</v>
       </c>
       <c r="F69">
-        <v>5713900</v>
+        <v>3820500</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>541.8099975585938</v>
+        <v>514.3800048828125</v>
       </c>
       <c r="B70">
-        <v>544.0599975585938</v>
+        <v>521.1300048828125</v>
       </c>
       <c r="C70">
-        <v>527.0499877929688</v>
+        <v>509.010009765625</v>
       </c>
       <c r="D70">
-        <v>530.3099975585938</v>
+        <v>516.489990234375</v>
       </c>
       <c r="E70">
-        <v>530.3099975585938</v>
+        <v>516.489990234375</v>
       </c>
       <c r="F70">
-        <v>3442100</v>
+        <v>2254500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>526.0499877929688</v>
+        <v>518.0800170898438</v>
       </c>
       <c r="B71">
-        <v>534.9099731445312</v>
+        <v>521.9500122070312</v>
       </c>
       <c r="C71">
-        <v>522.239990234375</v>
+        <v>512.0499877929688</v>
       </c>
       <c r="D71">
-        <v>532.280029296875</v>
+        <v>518.9099731445312</v>
       </c>
       <c r="E71">
-        <v>532.280029296875</v>
+        <v>518.9099731445312</v>
       </c>
       <c r="F71">
-        <v>3885800</v>
+        <v>2759000</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>526.0700073242188</v>
+        <v>521.8200073242188</v>
       </c>
       <c r="B72">
-        <v>536.6400146484375</v>
+        <v>524.469970703125</v>
       </c>
       <c r="C72">
-        <v>520.2999877929688</v>
+        <v>516.97998046875</v>
       </c>
       <c r="D72">
-        <v>531.0499877929688</v>
+        <v>519.2999877929688</v>
       </c>
       <c r="E72">
-        <v>531.0499877929688</v>
+        <v>519.2999877929688</v>
       </c>
       <c r="F72">
-        <v>6930400</v>
+        <v>2390500</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>526.1300048828125</v>
+        <v>519.9600219726562</v>
       </c>
       <c r="B73">
-        <v>530.989990234375</v>
+        <v>520.780029296875</v>
       </c>
       <c r="C73">
-        <v>505.6099853515625</v>
+        <v>513.7899780273438</v>
       </c>
       <c r="D73">
-        <v>513.6300048828125</v>
+        <v>514.25</v>
       </c>
       <c r="E73">
-        <v>513.6300048828125</v>
+        <v>514.25</v>
       </c>
       <c r="F73">
-        <v>11906800</v>
+        <v>1736000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>510.2099914550781</v>
+        <v>512.6900024414062</v>
       </c>
       <c r="B74">
-        <v>513.6799926757812</v>
+        <v>519.7899780273438</v>
       </c>
       <c r="C74">
-        <v>507</v>
+        <v>510.9599914550781</v>
       </c>
       <c r="D74">
-        <v>511.7699890136719</v>
+        <v>517.5700073242188</v>
       </c>
       <c r="E74">
-        <v>511.7699890136719</v>
+        <v>517.5700073242188</v>
       </c>
       <c r="F74">
-        <v>4328100</v>
+        <v>2534900</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>512.1599731445312</v>
+        <v>519</v>
       </c>
       <c r="B75">
-        <v>517.4099731445312</v>
+        <v>519.8499755859375</v>
       </c>
       <c r="C75">
-        <v>504.6600036621094</v>
+        <v>510.510009765625</v>
       </c>
       <c r="D75">
-        <v>515.4099731445312</v>
+        <v>515.1500244140625</v>
       </c>
       <c r="E75">
-        <v>515.4099731445312</v>
+        <v>515.1500244140625</v>
       </c>
       <c r="F75">
-        <v>3820500</v>
+        <v>2096600</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>514.3800048828125</v>
+        <v>514.3900146484375</v>
       </c>
       <c r="B76">
-        <v>521.1300048828125</v>
+        <v>515.6300048828125</v>
       </c>
       <c r="C76">
-        <v>509.010009765625</v>
+        <v>505.3699951171875</v>
       </c>
       <c r="D76">
-        <v>516.489990234375</v>
+        <v>510.8200073242188</v>
       </c>
       <c r="E76">
-        <v>516.489990234375</v>
+        <v>510.8200073242188</v>
       </c>
       <c r="F76">
-        <v>2254500</v>
+        <v>2579400</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>518.0800170898438</v>
+        <v>513</v>
       </c>
       <c r="B77">
-        <v>521.9500122070312</v>
+        <v>517.97998046875</v>
       </c>
       <c r="C77">
-        <v>512.0499877929688</v>
+        <v>510.3699951171875</v>
       </c>
       <c r="D77">
-        <v>518.9099731445312</v>
+        <v>517.3499755859375</v>
       </c>
       <c r="E77">
-        <v>518.9099731445312</v>
+        <v>517.3499755859375</v>
       </c>
       <c r="F77">
-        <v>2759000</v>
+        <v>2039400</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>521.8200073242188</v>
+        <v>517.1300048828125</v>
       </c>
       <c r="B78">
-        <v>524.469970703125</v>
+        <v>525.4099731445312</v>
       </c>
       <c r="C78">
-        <v>516.97998046875</v>
+        <v>514.02001953125</v>
       </c>
       <c r="D78">
-        <v>519.2999877929688</v>
+        <v>524.8900146484375</v>
       </c>
       <c r="E78">
-        <v>519.2999877929688</v>
+        <v>524.8900146484375</v>
       </c>
       <c r="F78">
-        <v>2390500</v>
+        <v>2556700</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>519.9600219726562</v>
+        <v>524</v>
       </c>
       <c r="B79">
-        <v>520.780029296875</v>
+        <v>526.8400268554688</v>
       </c>
       <c r="C79">
-        <v>513.7899780273438</v>
+        <v>519.3900146484375</v>
       </c>
       <c r="D79">
-        <v>514.25</v>
+        <v>520.5499877929688</v>
       </c>
       <c r="E79">
-        <v>514.25</v>
+        <v>520.5499877929688</v>
       </c>
       <c r="F79">
-        <v>1736000</v>
+        <v>1919400</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>512.6900024414062</v>
+        <v>521.1500244140625</v>
       </c>
       <c r="B80">
-        <v>519.7899780273438</v>
+        <v>522.6699829101562</v>
       </c>
       <c r="C80">
-        <v>510.9599914550781</v>
+        <v>517.989990234375</v>
       </c>
       <c r="D80">
-        <v>517.5700073242188</v>
+        <v>519.969970703125</v>
       </c>
       <c r="E80">
-        <v>517.5700073242188</v>
+        <v>519.969970703125</v>
       </c>
       <c r="F80">
-        <v>2534900</v>
+        <v>1367800</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B81">
-        <v>519.8499755859375</v>
+        <v>520.7899780273438</v>
       </c>
       <c r="C81">
-        <v>510.510009765625</v>
+        <v>512.969970703125</v>
       </c>
       <c r="D81">
-        <v>515.1500244140625</v>
+        <v>515.8400268554688</v>
       </c>
       <c r="E81">
-        <v>515.1500244140625</v>
+        <v>515.8400268554688</v>
       </c>
       <c r="F81">
-        <v>2096600</v>
+        <v>1960500</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>514.3900146484375</v>
+        <v>517</v>
       </c>
       <c r="B82">
-        <v>515.6300048828125</v>
+        <v>519.5700073242188</v>
       </c>
       <c r="C82">
-        <v>505.3699951171875</v>
+        <v>509.7699890136719</v>
       </c>
       <c r="D82">
-        <v>510.8200073242188</v>
+        <v>512.4000244140625</v>
       </c>
       <c r="E82">
-        <v>510.8200073242188</v>
+        <v>512.4000244140625</v>
       </c>
       <c r="F82">
-        <v>2579400</v>
+        <v>1673900</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
+        <v>511.8599853515625</v>
+      </c>
+      <c r="B83">
         <v>513</v>
       </c>
-      <c r="B83">
-        <v>517.97998046875</v>
-      </c>
       <c r="C83">
-        <v>510.3699951171875</v>
+        <v>507.2000122070312</v>
       </c>
       <c r="D83">
-        <v>517.3499755859375</v>
+        <v>510.7200012207031</v>
       </c>
       <c r="E83">
-        <v>517.3499755859375</v>
+        <v>510.7200012207031</v>
       </c>
       <c r="F83">
-        <v>2039400</v>
+        <v>1685700</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>517.1300048828125</v>
+        <v>512.6400146484375</v>
       </c>
       <c r="B84">
-        <v>525.4099731445312</v>
+        <v>521.4400024414062</v>
       </c>
       <c r="C84">
-        <v>514.02001953125</v>
+        <v>511.510009765625</v>
       </c>
       <c r="D84">
-        <v>524.8900146484375</v>
+        <v>515.9199829101562</v>
       </c>
       <c r="E84">
-        <v>524.8900146484375</v>
+        <v>515.9199829101562</v>
       </c>
       <c r="F84">
-        <v>2556700</v>
+        <v>2176300</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>524</v>
+        <v>515.239990234375</v>
       </c>
       <c r="B85">
-        <v>526.8400268554688</v>
+        <v>523.3800048828125</v>
       </c>
       <c r="C85">
-        <v>519.3900146484375</v>
+        <v>512.2999877929688</v>
       </c>
       <c r="D85">
-        <v>520.5499877929688</v>
+        <v>517.9199829101562</v>
       </c>
       <c r="E85">
-        <v>520.5499877929688</v>
+        <v>517.9199829101562</v>
       </c>
       <c r="F85">
-        <v>1919400</v>
+        <v>2032800</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>521.1500244140625</v>
+        <v>515.469970703125</v>
       </c>
       <c r="B86">
-        <v>522.6699829101562</v>
+        <v>520.7899780273438</v>
       </c>
       <c r="C86">
-        <v>517.989990234375</v>
+        <v>514.2000122070312</v>
       </c>
       <c r="D86">
-        <v>519.969970703125</v>
+        <v>518.9099731445312</v>
       </c>
       <c r="E86">
-        <v>519.969970703125</v>
+        <v>518.9099731445312</v>
       </c>
       <c r="F86">
-        <v>1367800</v>
+        <v>2309800</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2120,859 +2120,859 @@
         <v>520</v>
       </c>
       <c r="B87">
-        <v>520.7899780273438</v>
+        <v>526.3800048828125</v>
       </c>
       <c r="C87">
-        <v>512.969970703125</v>
+        <v>518.6500244140625</v>
       </c>
       <c r="D87">
-        <v>515.8400268554688</v>
+        <v>521.8699951171875</v>
       </c>
       <c r="E87">
-        <v>515.8400268554688</v>
+        <v>521.8699951171875</v>
       </c>
       <c r="F87">
-        <v>1960500</v>
+        <v>2582000</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>517</v>
+        <v>522.739990234375</v>
       </c>
       <c r="B88">
-        <v>519.5700073242188</v>
+        <v>548.3900146484375</v>
       </c>
       <c r="C88">
-        <v>509.7699890136719</v>
+        <v>521.8699951171875</v>
       </c>
       <c r="D88">
-        <v>512.4000244140625</v>
+        <v>543.7100219726562</v>
       </c>
       <c r="E88">
-        <v>512.4000244140625</v>
+        <v>543.7100219726562</v>
       </c>
       <c r="F88">
-        <v>1673900</v>
+        <v>7497300</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>511.8599853515625</v>
+        <v>545.0900268554688</v>
       </c>
       <c r="B89">
-        <v>513</v>
+        <v>551.3900146484375</v>
       </c>
       <c r="C89">
-        <v>507.2000122070312</v>
+        <v>539.0999755859375</v>
       </c>
       <c r="D89">
-        <v>510.7200012207031</v>
+        <v>546.8800048828125</v>
       </c>
       <c r="E89">
-        <v>510.7200012207031</v>
+        <v>546.8800048828125</v>
       </c>
       <c r="F89">
-        <v>1685700</v>
+        <v>3774300</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>512.6400146484375</v>
+        <v>545.97998046875</v>
       </c>
       <c r="B90">
-        <v>521.4400024414062</v>
+        <v>555.5499877929688</v>
       </c>
       <c r="C90">
-        <v>511.510009765625</v>
+        <v>543.739990234375</v>
       </c>
       <c r="D90">
-        <v>515.9199829101562</v>
+        <v>553.3300170898438</v>
       </c>
       <c r="E90">
-        <v>515.9199829101562</v>
+        <v>553.3300170898438</v>
       </c>
       <c r="F90">
-        <v>2176300</v>
+        <v>2602000</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>515.239990234375</v>
+        <v>551.47998046875</v>
       </c>
       <c r="B91">
-        <v>523.3800048828125</v>
+        <v>555.3099975585938</v>
       </c>
       <c r="C91">
-        <v>512.2999877929688</v>
+        <v>549.27001953125</v>
       </c>
       <c r="D91">
-        <v>517.9199829101562</v>
+        <v>553.4099731445312</v>
       </c>
       <c r="E91">
-        <v>517.9199829101562</v>
+        <v>553.4099731445312</v>
       </c>
       <c r="F91">
-        <v>2032800</v>
+        <v>2109500</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>515.469970703125</v>
+        <v>550.1599731445312</v>
       </c>
       <c r="B92">
-        <v>520.7899780273438</v>
+        <v>552.8400268554688</v>
       </c>
       <c r="C92">
-        <v>514.2000122070312</v>
+        <v>545.4500122070312</v>
       </c>
       <c r="D92">
-        <v>518.9099731445312</v>
+        <v>547.5800170898438</v>
       </c>
       <c r="E92">
-        <v>518.9099731445312</v>
+        <v>547.5800170898438</v>
       </c>
       <c r="F92">
-        <v>2309800</v>
+        <v>2065600</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>520</v>
+        <v>546.1599731445312</v>
       </c>
       <c r="B93">
-        <v>526.3800048828125</v>
+        <v>552.5999755859375</v>
       </c>
       <c r="C93">
-        <v>518.6500244140625</v>
+        <v>545.9000244140625</v>
       </c>
       <c r="D93">
-        <v>521.8699951171875</v>
+        <v>550.1199951171875</v>
       </c>
       <c r="E93">
-        <v>521.8699951171875</v>
+        <v>550.1199951171875</v>
       </c>
       <c r="F93">
-        <v>2582000</v>
+        <v>1595500</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>522.739990234375</v>
+        <v>551.5999755859375</v>
       </c>
       <c r="B94">
-        <v>548.3900146484375</v>
+        <v>564.1699829101562</v>
       </c>
       <c r="C94">
-        <v>521.8699951171875</v>
+        <v>549.25</v>
       </c>
       <c r="D94">
-        <v>543.7100219726562</v>
+        <v>558.9199829101562</v>
       </c>
       <c r="E94">
-        <v>543.7100219726562</v>
+        <v>558.9199829101562</v>
       </c>
       <c r="F94">
-        <v>7497300</v>
+        <v>3251100</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>545.0900268554688</v>
+        <v>557.25</v>
       </c>
       <c r="B95">
-        <v>551.3900146484375</v>
+        <v>567.1599731445312</v>
       </c>
       <c r="C95">
-        <v>539.0999755859375</v>
+        <v>556.4500122070312</v>
       </c>
       <c r="D95">
-        <v>546.8800048828125</v>
+        <v>566.1799926757812</v>
       </c>
       <c r="E95">
-        <v>546.8800048828125</v>
+        <v>566.1799926757812</v>
       </c>
       <c r="F95">
-        <v>3774300</v>
+        <v>2434800</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>545.97998046875</v>
+        <v>566.1199951171875</v>
       </c>
       <c r="B96">
-        <v>555.5499877929688</v>
+        <v>569.47998046875</v>
       </c>
       <c r="C96">
-        <v>543.739990234375</v>
+        <v>561.6099853515625</v>
       </c>
       <c r="D96">
-        <v>553.3300170898438</v>
+        <v>569.1900024414062</v>
       </c>
       <c r="E96">
-        <v>553.3300170898438</v>
+        <v>569.1900024414062</v>
       </c>
       <c r="F96">
-        <v>2602000</v>
+        <v>2431900</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>551.47998046875</v>
+        <v>569</v>
       </c>
       <c r="B97">
-        <v>555.3099975585938</v>
+        <v>591</v>
       </c>
       <c r="C97">
-        <v>549.27001953125</v>
+        <v>569</v>
       </c>
       <c r="D97">
-        <v>553.4099731445312</v>
+        <v>582.0700073242188</v>
       </c>
       <c r="E97">
-        <v>553.4099731445312</v>
+        <v>582.0700073242188</v>
       </c>
       <c r="F97">
-        <v>2109500</v>
+        <v>5626200</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>550.1599731445312</v>
+        <v>583.6799926757812</v>
       </c>
       <c r="B98">
-        <v>552.8400268554688</v>
+        <v>598.760009765625</v>
       </c>
       <c r="C98">
-        <v>545.4500122070312</v>
+        <v>583.6799926757812</v>
       </c>
       <c r="D98">
-        <v>547.5800170898438</v>
+        <v>588.5499877929688</v>
       </c>
       <c r="E98">
-        <v>547.5800170898438</v>
+        <v>588.5499877929688</v>
       </c>
       <c r="F98">
-        <v>2065600</v>
+        <v>6179900</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>546.1599731445312</v>
+        <v>585.7999877929688</v>
       </c>
       <c r="B99">
-        <v>552.5999755859375</v>
+        <v>591.8800048828125</v>
       </c>
       <c r="C99">
-        <v>545.9000244140625</v>
+        <v>583.1400146484375</v>
       </c>
       <c r="D99">
-        <v>550.1199951171875</v>
+        <v>590.530029296875</v>
       </c>
       <c r="E99">
-        <v>550.1199951171875</v>
+        <v>590.530029296875</v>
       </c>
       <c r="F99">
-        <v>1595500</v>
+        <v>2681200</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>551.5999755859375</v>
+        <v>594.6900024414062</v>
       </c>
       <c r="B100">
-        <v>564.1699829101562</v>
+        <v>613.8499755859375</v>
       </c>
       <c r="C100">
-        <v>549.25</v>
+        <v>593.989990234375</v>
       </c>
       <c r="D100">
-        <v>558.9199829101562</v>
+        <v>606.7100219726562</v>
       </c>
       <c r="E100">
-        <v>558.9199829101562</v>
+        <v>606.7100219726562</v>
       </c>
       <c r="F100">
-        <v>3251100</v>
+        <v>5821400</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>557.25</v>
+        <v>603.8400268554688</v>
       </c>
       <c r="B101">
-        <v>567.1599731445312</v>
+        <v>615.5999755859375</v>
       </c>
       <c r="C101">
-        <v>556.4500122070312</v>
+        <v>595.7100219726562</v>
       </c>
       <c r="D101">
-        <v>566.1799926757812</v>
+        <v>606.0499877929688</v>
       </c>
       <c r="E101">
-        <v>566.1799926757812</v>
+        <v>606.0499877929688</v>
       </c>
       <c r="F101">
-        <v>2434800</v>
+        <v>5424500</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>566.1199951171875</v>
+        <v>606.469970703125</v>
       </c>
       <c r="B102">
-        <v>569.47998046875</v>
+        <v>609.4400024414062</v>
       </c>
       <c r="C102">
-        <v>561.6099853515625</v>
+        <v>596.5499877929688</v>
       </c>
       <c r="D102">
-        <v>569.1900024414062</v>
+        <v>597.5399780273438</v>
       </c>
       <c r="E102">
-        <v>569.1900024414062</v>
+        <v>597.5399780273438</v>
       </c>
       <c r="F102">
-        <v>2431900</v>
+        <v>2954200</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>569</v>
+        <v>598.1599731445312</v>
       </c>
       <c r="B103">
-        <v>591</v>
+        <v>609.4500122070312</v>
       </c>
       <c r="C103">
-        <v>569</v>
+        <v>593.6699829101562</v>
       </c>
       <c r="D103">
-        <v>582.0700073242188</v>
+        <v>598.719970703125</v>
       </c>
       <c r="E103">
-        <v>582.0700073242188</v>
+        <v>598.719970703125</v>
       </c>
       <c r="F103">
-        <v>5626200</v>
+        <v>3948000</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>583.6799926757812</v>
+        <v>598.5700073242188</v>
       </c>
       <c r="B104">
-        <v>598.760009765625</v>
+        <v>598.5700073242188</v>
       </c>
       <c r="C104">
-        <v>583.6799926757812</v>
+        <v>582.780029296875</v>
       </c>
       <c r="D104">
-        <v>588.5499877929688</v>
+        <v>589.2899780273438</v>
       </c>
       <c r="E104">
-        <v>588.5499877929688</v>
+        <v>589.2899780273438</v>
       </c>
       <c r="F104">
-        <v>6179900</v>
+        <v>3062900</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>585.7999877929688</v>
+        <v>584.8900146484375</v>
       </c>
       <c r="B105">
-        <v>591.8800048828125</v>
+        <v>587.280029296875</v>
       </c>
       <c r="C105">
-        <v>583.1400146484375</v>
+        <v>575.5599975585938</v>
       </c>
       <c r="D105">
-        <v>590.530029296875</v>
+        <v>577.760009765625</v>
       </c>
       <c r="E105">
-        <v>590.530029296875</v>
+        <v>577.760009765625</v>
       </c>
       <c r="F105">
-        <v>2681200</v>
+        <v>3457000</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>594.6900024414062</v>
+        <v>578.1699829101562</v>
       </c>
       <c r="B106">
-        <v>613.8499755859375</v>
+        <v>584.6199951171875</v>
       </c>
       <c r="C106">
-        <v>593.989990234375</v>
+        <v>575.3699951171875</v>
       </c>
       <c r="D106">
-        <v>606.7100219726562</v>
+        <v>582.8699951171875</v>
       </c>
       <c r="E106">
-        <v>606.7100219726562</v>
+        <v>582.8699951171875</v>
       </c>
       <c r="F106">
-        <v>5821400</v>
+        <v>2755600</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>603.8400268554688</v>
+        <v>584.2999877929688</v>
       </c>
       <c r="B107">
-        <v>615.5999755859375</v>
+        <v>587.47998046875</v>
       </c>
       <c r="C107">
-        <v>595.7100219726562</v>
+        <v>577.719970703125</v>
       </c>
       <c r="D107">
-        <v>606.0499877929688</v>
+        <v>586.5</v>
       </c>
       <c r="E107">
-        <v>606.0499877929688</v>
+        <v>586.5</v>
       </c>
       <c r="F107">
-        <v>5424500</v>
+        <v>1832000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>606.469970703125</v>
+        <v>587.8499755859375</v>
       </c>
       <c r="B108">
-        <v>609.4400024414062</v>
+        <v>590.280029296875</v>
       </c>
       <c r="C108">
-        <v>596.5499877929688</v>
+        <v>580.8499755859375</v>
       </c>
       <c r="D108">
-        <v>597.5399780273438</v>
+        <v>589.3499755859375</v>
       </c>
       <c r="E108">
-        <v>597.5399780273438</v>
+        <v>589.3499755859375</v>
       </c>
       <c r="F108">
-        <v>2954200</v>
+        <v>4145100</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>598.1599731445312</v>
+        <v>586.7899780273438</v>
       </c>
       <c r="B109">
-        <v>609.4500122070312</v>
+        <v>591.530029296875</v>
       </c>
       <c r="C109">
-        <v>593.6699829101562</v>
+        <v>568.0800170898438</v>
       </c>
       <c r="D109">
-        <v>598.719970703125</v>
+        <v>575.4299926757812</v>
       </c>
       <c r="E109">
-        <v>598.719970703125</v>
+        <v>575.4299926757812</v>
       </c>
       <c r="F109">
-        <v>3948000</v>
+        <v>3732200</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>598.5700073242188</v>
+        <v>578.3099975585938</v>
       </c>
       <c r="B110">
-        <v>598.5700073242188</v>
+        <v>581.8800048828125</v>
       </c>
       <c r="C110">
-        <v>582.780029296875</v>
+        <v>569.3699951171875</v>
       </c>
       <c r="D110">
-        <v>589.2899780273438</v>
+        <v>573.1400146484375</v>
       </c>
       <c r="E110">
-        <v>589.2899780273438</v>
+        <v>573.1400146484375</v>
       </c>
       <c r="F110">
-        <v>3062900</v>
+        <v>2250900</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>584.8900146484375</v>
+        <v>579.6900024414062</v>
       </c>
       <c r="B111">
-        <v>587.280029296875</v>
+        <v>595.6500244140625</v>
       </c>
       <c r="C111">
-        <v>575.5599975585938</v>
+        <v>579.6900024414062</v>
       </c>
       <c r="D111">
-        <v>577.760009765625</v>
+        <v>590.6500244140625</v>
       </c>
       <c r="E111">
-        <v>577.760009765625</v>
+        <v>590.6500244140625</v>
       </c>
       <c r="F111">
-        <v>3457000</v>
+        <v>4021800</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>578.1699829101562</v>
+        <v>590.7899780273438</v>
       </c>
       <c r="B112">
-        <v>584.6199951171875</v>
+        <v>599.3200073242188</v>
       </c>
       <c r="C112">
-        <v>575.3699951171875</v>
+        <v>589.1300048828125</v>
       </c>
       <c r="D112">
-        <v>582.8699951171875</v>
+        <v>593.260009765625</v>
       </c>
       <c r="E112">
-        <v>582.8699951171875</v>
+        <v>593.260009765625</v>
       </c>
       <c r="F112">
-        <v>2755600</v>
+        <v>2526200</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>584.2999877929688</v>
+        <v>592.5</v>
       </c>
       <c r="B113">
-        <v>587.47998046875</v>
+        <v>592.97998046875</v>
       </c>
       <c r="C113">
-        <v>577.719970703125</v>
+        <v>583.6400146484375</v>
       </c>
       <c r="D113">
-        <v>586.5</v>
+        <v>592.3900146484375</v>
       </c>
       <c r="E113">
-        <v>586.5</v>
+        <v>592.3900146484375</v>
       </c>
       <c r="F113">
-        <v>1832000</v>
+        <v>2126200</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>587.8499755859375</v>
+        <v>587.9500122070312</v>
       </c>
       <c r="B114">
-        <v>590.280029296875</v>
+        <v>593.5800170898438</v>
       </c>
       <c r="C114">
-        <v>580.8499755859375</v>
+        <v>576.9299926757812</v>
       </c>
       <c r="D114">
-        <v>589.3499755859375</v>
+        <v>592.6400146484375</v>
       </c>
       <c r="E114">
-        <v>589.3499755859375</v>
+        <v>592.6400146484375</v>
       </c>
       <c r="F114">
-        <v>4145100</v>
+        <v>2504700</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>586.7899780273438</v>
+        <v>589</v>
       </c>
       <c r="B115">
-        <v>591.530029296875</v>
+        <v>599.5399780273438</v>
       </c>
       <c r="C115">
-        <v>568.0800170898438</v>
+        <v>580.1599731445312</v>
       </c>
       <c r="D115">
-        <v>575.4299926757812</v>
+        <v>583.8499755859375</v>
       </c>
       <c r="E115">
-        <v>575.4299926757812</v>
+        <v>583.8499755859375</v>
       </c>
       <c r="F115">
-        <v>3732200</v>
+        <v>4431100</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>578.3099975585938</v>
+        <v>589.010009765625</v>
       </c>
       <c r="B116">
-        <v>581.8800048828125</v>
+        <v>609.8800048828125</v>
       </c>
       <c r="C116">
-        <v>569.3699951171875</v>
+        <v>588.010009765625</v>
       </c>
       <c r="D116">
-        <v>573.1400146484375</v>
+        <v>599.0599975585938</v>
       </c>
       <c r="E116">
-        <v>573.1400146484375</v>
+        <v>599.0599975585938</v>
       </c>
       <c r="F116">
-        <v>2250900</v>
+        <v>6221000</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>579.6900024414062</v>
+        <v>608.0499877929688</v>
       </c>
       <c r="B117">
-        <v>595.6500244140625</v>
+        <v>619</v>
       </c>
       <c r="C117">
-        <v>579.6900024414062</v>
+        <v>608.0499877929688</v>
       </c>
       <c r="D117">
-        <v>590.6500244140625</v>
+        <v>610.3400268554688</v>
       </c>
       <c r="E117">
-        <v>590.6500244140625</v>
+        <v>610.3400268554688</v>
       </c>
       <c r="F117">
-        <v>4021800</v>
+        <v>6612600</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>590.7899780273438</v>
+        <v>604.239990234375</v>
       </c>
       <c r="B118">
-        <v>599.3200073242188</v>
+        <v>614.989990234375</v>
       </c>
       <c r="C118">
-        <v>589.1300048828125</v>
+        <v>597.510009765625</v>
       </c>
       <c r="D118">
-        <v>593.260009765625</v>
+        <v>613.1500244140625</v>
       </c>
       <c r="E118">
-        <v>593.260009765625</v>
+        <v>613.1500244140625</v>
       </c>
       <c r="F118">
-        <v>2526200</v>
+        <v>4090800</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>592.5</v>
+        <v>613.3900146484375</v>
       </c>
       <c r="B119">
-        <v>592.97998046875</v>
+        <v>626.1300048828125</v>
       </c>
       <c r="C119">
-        <v>583.6400146484375</v>
+        <v>594.6799926757812</v>
       </c>
       <c r="D119">
-        <v>592.3900146484375</v>
+        <v>603.3499755859375</v>
       </c>
       <c r="E119">
-        <v>592.3900146484375</v>
+        <v>603.3499755859375</v>
       </c>
       <c r="F119">
-        <v>2126200</v>
+        <v>4995900</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>587.9500122070312</v>
+        <v>606.9400024414062</v>
       </c>
       <c r="B120">
-        <v>593.5800170898438</v>
+        <v>640.3900146484375</v>
       </c>
       <c r="C120">
-        <v>576.9299926757812</v>
+        <v>606.8900146484375</v>
       </c>
       <c r="D120">
-        <v>592.6400146484375</v>
+        <v>634.8099975585938</v>
       </c>
       <c r="E120">
-        <v>592.6400146484375</v>
+        <v>634.8099975585938</v>
       </c>
       <c r="F120">
-        <v>2504700</v>
+        <v>9534300</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>589</v>
+        <v>628.1799926757812</v>
       </c>
       <c r="B121">
-        <v>599.5399780273438</v>
+        <v>639.8699951171875</v>
       </c>
       <c r="C121">
-        <v>580.1599731445312</v>
+        <v>626.3599853515625</v>
       </c>
       <c r="D121">
-        <v>583.8499755859375</v>
+        <v>639.0999755859375</v>
       </c>
       <c r="E121">
-        <v>583.8499755859375</v>
+        <v>639.0999755859375</v>
       </c>
       <c r="F121">
-        <v>4431100</v>
+        <v>4580400</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>589.010009765625</v>
+        <v>642.22998046875</v>
       </c>
       <c r="B122">
-        <v>609.8800048828125</v>
+        <v>646.8400268554688</v>
       </c>
       <c r="C122">
-        <v>588.010009765625</v>
+        <v>630.4500122070312</v>
       </c>
       <c r="D122">
-        <v>599.0599975585938</v>
+        <v>631.8499755859375</v>
       </c>
       <c r="E122">
-        <v>599.0599975585938</v>
+        <v>631.8499755859375</v>
       </c>
       <c r="F122">
-        <v>6221000</v>
+        <v>3556900</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>608.0499877929688</v>
+        <v>634.1699829101562</v>
       </c>
       <c r="B123">
-        <v>619</v>
+        <v>643.7999877929688</v>
       </c>
       <c r="C123">
-        <v>608.0499877929688</v>
+        <v>630.8599853515625</v>
       </c>
       <c r="D123">
-        <v>610.3400268554688</v>
+        <v>632.6599731445312</v>
       </c>
       <c r="E123">
-        <v>610.3400268554688</v>
+        <v>632.6599731445312</v>
       </c>
       <c r="F123">
-        <v>6612600</v>
+        <v>3271100</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>604.239990234375</v>
+        <v>633.2000122070312</v>
       </c>
       <c r="B124">
-        <v>614.989990234375</v>
+        <v>639.4199829101562</v>
       </c>
       <c r="C124">
-        <v>597.510009765625</v>
+        <v>626.780029296875</v>
       </c>
       <c r="D124">
-        <v>613.1500244140625</v>
+        <v>627.0399780273438</v>
       </c>
       <c r="E124">
-        <v>613.1500244140625</v>
+        <v>627.0399780273438</v>
       </c>
       <c r="F124">
-        <v>4090800</v>
+        <v>2862500</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>613.3900146484375</v>
+        <v>633.02001953125</v>
       </c>
       <c r="B125">
-        <v>626.1300048828125</v>
+        <v>637.6599731445312</v>
       </c>
       <c r="C125">
-        <v>594.6799926757812</v>
+        <v>621.989990234375</v>
       </c>
       <c r="D125">
-        <v>603.3499755859375</v>
+        <v>624.9400024414062</v>
       </c>
       <c r="E125">
-        <v>603.3499755859375</v>
+        <v>624.9400024414062</v>
       </c>
       <c r="F125">
-        <v>4995900</v>
+        <v>3227300</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>606.9400024414062</v>
+        <v>632.1799926757812</v>
       </c>
       <c r="B126">
-        <v>640.3900146484375</v>
+        <v>632.1799926757812</v>
       </c>
       <c r="C126">
-        <v>606.8900146484375</v>
+        <v>622.0999755859375</v>
       </c>
       <c r="D126">
-        <v>634.8099975585938</v>
+        <v>629.760009765625</v>
       </c>
       <c r="E126">
-        <v>634.8099975585938</v>
+        <v>629.760009765625</v>
       </c>
       <c r="F126">
-        <v>9534300</v>
+        <v>2420300</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>628.1799926757812</v>
+        <v>632.22998046875</v>
       </c>
       <c r="B127">
-        <v>639.8699951171875</v>
+        <v>636.8800048828125</v>
       </c>
       <c r="C127">
-        <v>626.3599853515625</v>
+        <v>626.7899780273438</v>
       </c>
       <c r="D127">
-        <v>639.0999755859375</v>
+        <v>633.7999877929688</v>
       </c>
       <c r="E127">
-        <v>639.0999755859375</v>
+        <v>633.7999877929688</v>
       </c>
       <c r="F127">
-        <v>4580400</v>
+        <v>2671700</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>642.22998046875</v>
+        <v>638</v>
       </c>
       <c r="B128">
-        <v>646.8400268554688</v>
+        <v>639.4199829101562</v>
       </c>
       <c r="C128">
-        <v>630.4500122070312</v>
+        <v>625.1599731445312</v>
       </c>
       <c r="D128">
-        <v>631.8499755859375</v>
+        <v>628.2899780273438</v>
       </c>
       <c r="E128">
-        <v>631.8499755859375</v>
+        <v>628.2899780273438</v>
       </c>
       <c r="F128">
-        <v>3556900</v>
+        <v>4114400</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>634.1699829101562</v>
+        <v>632.0999755859375</v>
       </c>
       <c r="B129">
-        <v>643.7999877929688</v>
+        <v>632.7000122070312</v>
       </c>
       <c r="C129">
-        <v>630.8599853515625</v>
+        <v>620.590087890625</v>
       </c>
       <c r="D129">
-        <v>632.6599731445312</v>
+        <v>632.4149780273438</v>
       </c>
       <c r="E129">
-        <v>632.6599731445312</v>
+        <v>632.4149780273438</v>
       </c>
       <c r="F129">
-        <v>3271100</v>
+        <v>1923643</v>
       </c>
     </row>
   </sheetData>
